--- a/Final-Project-Test-Cases.xlsx
+++ b/Final-Project-Test-Cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jayva\Downloads\Final-Project-Bb01V1\Final-Project-Bb01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jayva\Downloads\Final-Project-Bb01v2\Final-Project-Bb01v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1684605-3426-4162-BFAE-4C6BC96F074F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7D5B19-AF43-4CA0-B9A3-05C9F83A5122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -693,7 +693,7 @@
           <rPr>
             <b/>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -703,18 +703,27 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">reference value to confirm 
-the result – this is documented </t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">the result – this is documented </t>
         </r>
         <r>
           <rPr>
             <i/>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -723,12 +732,31 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>the test is run.
-This is similar to the programming debug process by which results of processing are examined to confirm expectations and assumptions (PASS) or to identify an unexpected issue (FAIL).</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">the test is run.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is similar to the programming debug process by which results of processing are examined to confirm expectations and assumptions (PASS) or to identify an unexpected issue (FAIL).</t>
         </r>
       </text>
     </comment>
@@ -785,12 +813,22 @@
           <rPr>
             <b/>
             <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Required for negative test cases that FAIL
-or for unexpect results.</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Required for negative test cases that FAIL
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>or for unexpect results.</t>
         </r>
       </text>
     </comment>
@@ -1046,7 +1084,7 @@
     <author>Tim McKenna</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{73CDDCC5-DEF9-4198-AB6F-663FBFA75AEC}">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{DD8A61C4-847C-AA41-AF7C-49ACB5103DFD}">
       <text>
         <r>
           <rPr>
@@ -1090,7 +1128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{C5E57DF2-75BE-427E-B461-846D7F195E14}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{2BEFEF73-AE1F-474E-A66E-C1944956E46C}">
       <text>
         <r>
           <rPr>
@@ -1155,7 +1193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{4679AE41-C1FC-42AC-AC68-EBAC777A24D9}">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{1A6DEA82-0378-074C-B56E-FC4758FBBB1B}">
       <text>
         <r>
           <rPr>
@@ -1181,7 +1219,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{2891D1DC-16FD-429F-AADE-260368988D34}">
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{65906D0F-54DD-D945-97A6-11215B895E70}">
       <text>
         <r>
           <rPr>
@@ -1226,7 +1264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{56C701D0-649D-415A-8827-D8C01E5844B0}">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{1D3733A5-2087-3E4D-A994-6AC4B3DF4759}">
       <text>
         <r>
           <rPr>
@@ -1250,7 +1288,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{1CFD9AEA-4F24-48EF-8683-675BA2D08F3F}">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{05DABF18-A348-C842-A98A-7CE6E5CC53B7}">
       <text>
         <r>
           <rPr>
@@ -1273,7 +1311,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{7AB124D7-8C8A-44DD-A61F-3B2C3D2DE3F5}">
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{F58BB738-9577-E143-81E3-1026091508AF}">
       <text>
         <r>
           <rPr>
@@ -1288,7 +1326,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{F73B17DE-5D6D-4BEE-8A16-22F591181658}">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{1299BC61-C282-C742-8716-6E4CDD86C7D9}">
       <text>
         <r>
           <rPr>
@@ -1332,7 +1370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{F368EADF-F05B-4C15-A4E0-CA9F2F783275}">
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{9569CDE7-43B6-ED41-8769-E16DBE70C7B8}">
       <text>
         <r>
           <rPr>
@@ -1397,81 +1435,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{89399E78-2781-46CB-8982-30E3233EC7BC}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Test Input:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>exact data for entry to test the purpose.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{4AD780C7-49A1-204B-AA89-83251F09B93D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Test Input:
+exact data for entry to test the purpose.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">This is similar to source code in a program: it describes exactly how it will be done.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>The What and Why is in the Description and Purpose.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{34FB52D3-7A1D-4C5B-9838-1E77E035A0FA}">
+This is similar to source code in a program: it describes exactly how it will be done.
+The What and Why is in the Description and Purpose.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{735A5696-8D18-E94E-920A-36548546AC03}">
       <text>
         <r>
           <rPr>
@@ -1516,7 +1506,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{400DA026-3EB6-4927-87CA-8598E92E8996}">
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{4F2CB82A-096D-9642-BFFA-107FC676A0B4}">
       <text>
         <r>
           <rPr>
@@ -1540,7 +1530,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{9E419422-AFBA-4A9D-AF8D-AF50B3D1D5D0}">
+    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{123E942F-F613-D844-8117-500DB4381F89}">
       <text>
         <r>
           <rPr>
@@ -1563,7 +1553,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{99451D2F-B00E-4B10-92E4-565F887D03DF}">
+    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{F38F60D6-83C2-2C4A-B185-97E66D033143}">
       <text>
         <r>
           <rPr>
@@ -1578,7 +1568,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{C02017E4-821F-4A2D-86D8-AB6EEDB22A86}">
+    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{6F9775C5-D7B6-1D40-A640-116E17FA571D}">
       <text>
         <r>
           <rPr>
@@ -1622,7 +1612,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{05B2FD82-D89E-4CA6-B9CD-DADA87D3459D}">
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{3972ACA9-796F-7240-B1EA-4C18A5246C60}">
       <text>
         <r>
           <rPr>
@@ -1687,7 +1677,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{23C8660F-F760-4D26-A851-EB73153BFF94}">
+    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{18ED7FC9-EF68-8341-B144-7A4E893E5647}">
       <text>
         <r>
           <rPr>
@@ -1713,7 +1703,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{D011BF0E-2314-4932-9D14-810DC408E97A}">
+    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{0678F992-0157-9040-B6F3-332B0300FC42}">
       <text>
         <r>
           <rPr>
@@ -1758,7 +1748,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{135F8B3A-CCD4-4CA6-9ADB-2D061B1E1D5D}">
+    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{015E9928-4ABB-B24F-9C1C-D78B202E8369}">
       <text>
         <r>
           <rPr>
@@ -1782,7 +1772,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F19" authorId="0" shapeId="0" xr:uid="{CDD09690-9535-4ED1-A265-0F0404D34131}">
+    <comment ref="F19" authorId="0" shapeId="0" xr:uid="{073B421B-6518-3141-8889-B5E42CE77F9F}">
       <text>
         <r>
           <rPr>
@@ -1805,7 +1795,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G19" authorId="0" shapeId="0" xr:uid="{508032F0-07F6-4EDA-A011-0A700A6AF801}">
+    <comment ref="G19" authorId="0" shapeId="0" xr:uid="{3F2D4203-52F4-3C4E-AE5F-9F2EE389530B}">
       <text>
         <r>
           <rPr>
@@ -2495,33 +2485,74 @@
           <rPr>
             <b/>
             <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Required for negative test cases that FAIL
-or for unexpect results.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A33" authorId="0" shapeId="0" xr:uid="{C02017E4-821F-4A2D-86D8-AB6EEDB22A86}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Required for negative test cases that FAIL
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>or for unexpect results.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A47" authorId="0" shapeId="0" xr:uid="{84A773F8-A7DB-7F47-A498-0D127752BE4D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-general description of a test.
-Identify the code structure being tested </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">general description of a test.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Identify the code structure being tested </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -2531,7 +2562,7 @@
           <rPr>
             <i/>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -2540,7 +2571,7 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -2548,7 +2579,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B33" authorId="0" shapeId="0" xr:uid="{05B2FD82-D89E-4CA6-B9CD-DADA87D3459D}">
+    <comment ref="B47" authorId="0" shapeId="0" xr:uid="{8D46E51A-3342-B848-A9BE-77263313D1C4}">
       <text>
         <r>
           <rPr>
@@ -2613,39 +2644,87 @@
         </r>
       </text>
     </comment>
-    <comment ref="C33" authorId="0" shapeId="0" xr:uid="{23C8660F-F760-4D26-A851-EB73153BFF94}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Test Input:
-exact data for entry to test the purpose.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
+    <comment ref="C47" authorId="0" shapeId="0" xr:uid="{45A6170C-BFB2-1242-95A8-0D308088A346}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Test Input:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>exact data for entry to test the purpose.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-This is similar to source code in a program: it describes exactly how it will be done.
-The What and Why is in the Description and Purpose.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D33" authorId="0" shapeId="0" xr:uid="{D011BF0E-2314-4932-9D14-810DC408E97A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This is similar to source code in a program: it describes exactly how it will be done.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The What and Why is in the Description and Purpose.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D47" authorId="0" shapeId="0" xr:uid="{A0512CC8-BE83-5448-AD4F-0B63209D5B8C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -2655,18 +2734,27 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">reference value to confirm 
-the result – this is documented </t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">the result – this is documented </t>
         </r>
         <r>
           <rPr>
             <i/>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -2675,16 +2763,35 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>the test is run.
-This is similar to the programming debug process by which results of processing are examined to confirm expectations and assumptions (PASS) or to identify an unexpected issue (FAIL).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E33" authorId="0" shapeId="0" xr:uid="{135F8B3A-CCD4-4CA6-9ADB-2D061B1E1D5D}">
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">the test is run.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is similar to the programming debug process by which results of processing are examined to confirm expectations and assumptions (PASS) or to identify an unexpected issue (FAIL).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E47" authorId="0" shapeId="0" xr:uid="{C52347C6-845C-DE43-B0C3-863F5C3DD38A}">
       <text>
         <r>
           <rPr>
@@ -2708,7 +2815,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F33" authorId="0" shapeId="0" xr:uid="{CDD09690-9535-4ED1-A265-0F0404D34131}">
+    <comment ref="F47" authorId="0" shapeId="0" xr:uid="{C28D6120-84C3-FB4A-BEC9-A1783369460F}">
       <text>
         <r>
           <rPr>
@@ -2731,18 +2838,28 @@
         </r>
       </text>
     </comment>
-    <comment ref="G33" authorId="0" shapeId="0" xr:uid="{508032F0-07F6-4EDA-A011-0A700A6AF801}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Required for negative test cases that FAIL
-or for unexpect results.</t>
+    <comment ref="G47" authorId="0" shapeId="0" xr:uid="{16072DE1-A447-144F-84F5-0E1FB401DA8A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Required for negative test cases that FAIL
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>or for unexpect results.</t>
         </r>
       </text>
     </comment>
@@ -3970,7 +4087,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A39" authorId="0" shapeId="0" xr:uid="{9836CAFB-1676-45A2-B128-23BB665358E1}">
+    <comment ref="A50" authorId="0" shapeId="0" xr:uid="{9836CAFB-1676-45A2-B128-23BB665358E1}">
       <text>
         <r>
           <rPr>
@@ -4014,7 +4131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B39" authorId="0" shapeId="0" xr:uid="{76394C31-CC6A-443F-856B-B9E505AC5129}">
+    <comment ref="B50" authorId="0" shapeId="0" xr:uid="{76394C31-CC6A-443F-856B-B9E505AC5129}">
       <text>
         <r>
           <rPr>
@@ -4079,7 +4196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C39" authorId="0" shapeId="0" xr:uid="{60A2FF5C-FCB2-44D1-9E75-0B74877A989D}">
+    <comment ref="C50" authorId="0" shapeId="0" xr:uid="{60A2FF5C-FCB2-44D1-9E75-0B74877A989D}">
       <text>
         <r>
           <rPr>
@@ -4105,7 +4222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D39" authorId="0" shapeId="0" xr:uid="{BF659CD8-BAF3-4C12-B572-156B71229E3D}">
+    <comment ref="D50" authorId="0" shapeId="0" xr:uid="{BF659CD8-BAF3-4C12-B572-156B71229E3D}">
       <text>
         <r>
           <rPr>
@@ -4150,13 +4267,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="E39" authorId="0" shapeId="0" xr:uid="{C07AA38A-C9DD-4AEA-BCE7-50B9653F9760}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
+    <comment ref="E50" authorId="0" shapeId="0" xr:uid="{C07AA38A-C9DD-4AEA-BCE7-50B9653F9760}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -4164,7 +4281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F39" authorId="0" shapeId="0" xr:uid="{6E1CC602-D3D0-4102-916C-BF2983576C05}">
+    <comment ref="F50" authorId="0" shapeId="0" xr:uid="{6E1CC602-D3D0-4102-916C-BF2983576C05}">
       <text>
         <r>
           <rPr>
@@ -4187,7 +4304,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G39" authorId="0" shapeId="0" xr:uid="{C6A33B25-CB18-4D20-9BB9-F794950874F8}">
+    <comment ref="G50" authorId="0" shapeId="0" xr:uid="{C6A33B25-CB18-4D20-9BB9-F794950874F8}">
       <text>
         <r>
           <rPr>
@@ -4229,7 +4346,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="294">
   <si>
     <t>Comments</t>
   </si>
@@ -4808,39 +4925,24 @@
     <t>test that the program can handle max integer value</t>
   </si>
   <si>
-    <t>This test case verifies that the program can handle input strings with mixed data characters and correctly convert the integer portion to an integer.</t>
-  </si>
-  <si>
     <t>test that the program can handle input strings with mixed data characters</t>
   </si>
   <si>
-    <t>This test case ensures that the program can handle non-numeric input and return 0 when the input cannot be converted to an integer.</t>
-  </si>
-  <si>
     <t>abc</t>
   </si>
   <si>
     <t xml:space="preserve">test that the program can handle non-numeric input </t>
   </si>
   <si>
-    <t>This test case verifies that the program correctly handles invalid input or input that cannot be converted to an integer.</t>
-  </si>
-  <si>
     <t>Positive</t>
   </si>
   <si>
     <t>test case to check whether the program correctly handles invalid input</t>
   </si>
   <si>
-    <t>This test case ensures that the program can handle negative integer strings and correctly convert them to negative integers.</t>
-  </si>
-  <si>
     <t>test that the program can convert a negative integer strings to negative integer</t>
   </si>
   <si>
-    <t>This test case verifies that the program can correctly convert a valid integer string to an integer.</t>
-  </si>
-  <si>
     <t>test that the program can convert a valid integer string to an integer</t>
   </si>
   <si>
@@ -4850,18 +4952,246 @@
     <t>conversion</t>
   </si>
   <si>
+    <t>Mohit Sheth
+APR 16 2023</t>
+  </si>
+  <si>
+    <t>Test with a  double input</t>
+  </si>
+  <si>
+    <t>Test with a double input</t>
+  </si>
+  <si>
+    <t>12.3a4</t>
+  </si>
+  <si>
+    <t>The function should prompt a user to give a valid input</t>
+  </si>
+  <si>
+    <t>Test the quitting function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to quit </t>
+  </si>
+  <si>
+    <t>Test with a maximum double input</t>
+  </si>
+  <si>
+    <t>1.7976931348623157E+308</t>
+  </si>
+  <si>
+    <t>1.797693e+308</t>
+  </si>
+  <si>
+    <t>179769313486231570814527423731704356798070567525844996598917476803157260780028538760589558632766878171540458953514382464234321326889464182768467546703537516986049910576551282076245490090389328944075868508455133942304583236903222948165808559332123348274797826204144723168738177180919299881250404026184124858368.000000</t>
+  </si>
+  <si>
+    <t>Test with a minimum double input</t>
+  </si>
+  <si>
+    <t>Test with a scientific notation double input</t>
+  </si>
+  <si>
+    <t>The program quits immediately</t>
+  </si>
+  <si>
+    <t>Testing if the program accepts empty string</t>
+  </si>
+  <si>
+    <t>Giving an empty string as an input</t>
+  </si>
+  <si>
     <t>""</t>
   </si>
   <si>
+    <t>The program displays "The length of '' is 0 characters"</t>
+  </si>
+  <si>
+    <t>Testing if the program accepts a single character string</t>
+  </si>
+  <si>
+    <t>Giving an single character input</t>
+  </si>
+  <si>
+    <t>"s"</t>
+  </si>
+  <si>
+    <t>The program displays "The length of 's' is 1 character"</t>
+  </si>
+  <si>
+    <t>Testing if the program accepts input with space</t>
+  </si>
+  <si>
+    <t>Giving input containing space character</t>
+  </si>
+  <si>
+    <t>The program displays the correct number of characters in the string</t>
+  </si>
+  <si>
+    <t>Testing if the program accepts long string</t>
+  </si>
+  <si>
+    <t>Giving input that has large number of character input</t>
+  </si>
+  <si>
+    <t>"This test is to check if the program runs successfully"</t>
+  </si>
+  <si>
+    <t>The program displays the required output</t>
+  </si>
+  <si>
+    <t>Testing if the program quits after entering a string</t>
+  </si>
+  <si>
+    <t>Giving the input string to the program and then "q" character</t>
+  </si>
+  <si>
+    <t>"Hello" "q"</t>
+  </si>
+  <si>
+    <t>The program quits successfully after displaying the number of characters</t>
+  </si>
+  <si>
+    <t>Negative - Edge case, second string is only space character</t>
+  </si>
+  <si>
+    <t>Testing if the program can compare two strings</t>
+  </si>
+  <si>
+    <t>Positive - Compare two strings</t>
+  </si>
+  <si>
+    <t>Greater</t>
+  </si>
+  <si>
+    <t>Testing if the program can compare two identical strings</t>
+  </si>
+  <si>
+    <t>Positive - Compare identical strings</t>
+  </si>
+  <si>
+    <t>Equal</t>
+  </si>
+  <si>
+    <t>Testing if the program can compare a string with a single character string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Positive - Compare string and character </t>
+  </si>
+  <si>
+    <t>Testing if the program can compare a single character string with a string</t>
+  </si>
+  <si>
+    <t>Positive - Compare character and string</t>
+  </si>
+  <si>
+    <t>Lesser</t>
+  </si>
+  <si>
+    <t>Testing if the program can compare a string with a numeric string</t>
+  </si>
+  <si>
+    <t>Positive - Compare string and number</t>
+  </si>
+  <si>
+    <t>Testing if the program can compare a numeric string with a string</t>
+  </si>
+  <si>
+    <t>Positive - Compare number and string</t>
+  </si>
+  <si>
+    <t>Testing if the program can compare a string with a single special character string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Positive - Compare string and special character </t>
+  </si>
+  <si>
+    <t>Testing if the program can compare a single special character string with a string</t>
+  </si>
+  <si>
+    <t>Positive - Compare special character and string</t>
+  </si>
+  <si>
+    <t>Testing if the program can compare a string with an empty string</t>
+  </si>
+  <si>
+    <t>Testing if the program can compare an empty string with a string</t>
+  </si>
+  <si>
+    <t>Testing if the program can compare a string and a single escape character string</t>
+  </si>
+  <si>
+    <t>Testing if the program can compare a single escape character string with a string</t>
+  </si>
+  <si>
+    <t>Testing if the program can compare a captial alphabetic string with a string</t>
+  </si>
+  <si>
+    <t>Positive - Compare uppercase string and string</t>
+  </si>
+  <si>
+    <t>Testing if the program can compare a string with a capital alphabetic string</t>
+  </si>
+  <si>
+    <t>Positive - Compare string with uppercase string</t>
+  </si>
+  <si>
+    <t>Testing if the program can compare a string with a space character string</t>
+  </si>
+  <si>
+    <t>Testing if the program can compare a space character string with a string</t>
+  </si>
+  <si>
+    <t>Testing if the program can compare string greater than buffer size</t>
+  </si>
+  <si>
+    <t>Lesser, Equal, Equal, Equal</t>
+  </si>
+  <si>
+    <t>Program does not crash but produces unexpected results as stdin is not cleared</t>
+  </si>
+  <si>
+    <t>"hellofromversion2," (x 200)</t>
+  </si>
+  <si>
+    <t>validates the input before passing to function and gives error.</t>
+  </si>
+  <si>
+    <t>continues to print even skips the input statement</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "hellofromversion2"</t>
+  </si>
+  <si>
+    <t>"hello,from,version two"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tokenize the string with the program specified delimiter "," </t>
+  </si>
+  <si>
+    <t>"does,,this,,still,,work?"</t>
+  </si>
+  <si>
+    <t>Tokenize the string with the program-specified delimiter "," BUT the separated tokens include the additional whitespaces</t>
+  </si>
+  <si>
+    <t>Type a few phrases separated by comma(q - to quit):
+"does,,this,,still,,work?"
+Phrase #1 is '"does'
+Phrase #2 is 'this'
+Phrase #3 is 'still'
+Phrase #4 is 'work?"'</t>
+  </si>
+  <si>
+    <t>Jay Vakil</t>
+  </si>
+  <si>
     <t>"Suiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiii"</t>
   </si>
   <si>
     <t>"Suiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiii"</t>
   </si>
   <si>
-    <t>continues to print even skips the input statement</t>
-  </si>
-  <si>
     <t>Word #1 is 'hello</t>
   </si>
   <si>
@@ -4877,14 +5207,107 @@
     <t>Word #5 is 'you</t>
   </si>
   <si>
-    <t>JAY VIJAYKUMAR VAKIL</t>
+    <t>"The length of 's' is 1 character"</t>
+  </si>
+  <si>
+    <t>"This test is to check if the program run"</t>
+  </si>
+  <si>
+    <t>"Foo" "'</t>
+  </si>
+  <si>
+    <t>Type a few phrases separated by comma(q - to quit):</t>
+  </si>
+  <si>
+    <t>Phrase #1 is '"does'</t>
+  </si>
+  <si>
+    <t>Phrase #2 is 'this'</t>
+  </si>
+  <si>
+    <t>Phrase #3 is 'still'</t>
+  </si>
+  <si>
+    <t>Phrase #4 is 'work?"'</t>
+  </si>
+  <si>
+    <t>conversions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To crash </t>
+  </si>
+  <si>
+    <t>123abc456</t>
+  </si>
+  <si>
+    <t>To crash</t>
+  </si>
+  <si>
+    <t>The program quits successfully</t>
+  </si>
+  <si>
+    <t>"12345"</t>
+  </si>
+  <si>
+    <t>The program accepts the integer input</t>
+  </si>
+  <si>
+    <t>"qwertyuiopasdfghjklzxcvbnmqwertyuiopasdfghjklzxcvbnmqwertyuiopasdfghjklzxcvbnmqwertyuiopasdfghjklzxcvbnm"</t>
+  </si>
+  <si>
+    <t>"qwertyuiopasdfghjklzxcvbnmqwertyuiopasdfghjklzxcvbnmqwertyuiopasdfghjklzxcvbnm"</t>
+  </si>
+  <si>
+    <t>Negative - Edge case, substring is empty</t>
+  </si>
+  <si>
+    <t>Positive - Searching substring not in a string</t>
+  </si>
+  <si>
+    <t>Not found</t>
+  </si>
+  <si>
+    <t>Not found, 0, 0, 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "hellofromversion3"</t>
+  </si>
+  <si>
+    <t>"hello from version 3." (x 50)</t>
+  </si>
+  <si>
+    <t>PRESSING "ENTER" KEY                      \n THIS IS ALSO LIKE GIVE NULL as an input</t>
+  </si>
+  <si>
+    <t>"this is sentence1. this is sentence2.this is sentence3."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tokenize the string with the program specified delimiter "." </t>
+  </si>
+  <si>
+    <t>"this is version3..this is text should not be double deliminated."</t>
+  </si>
+  <si>
+    <t>Tokenize the string with the program-specified delimiter "." BUT the separated tokens include the additional whitespaces</t>
+  </si>
+  <si>
+    <t>Type a few sentences separated by dot(q - to quit):</t>
+  </si>
+  <si>
+    <t>this is version3..this is text should not be double deliminated.</t>
+  </si>
+  <si>
+    <t>Senetnce #1 is 'this is version3'</t>
+  </si>
+  <si>
+    <t>Senetnce #2 is 'this is text should not be double deliminated'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -5034,9 +5457,28 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -5101,7 +5543,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -5146,9 +5588,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -5164,7 +5604,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -5314,8 +5754,45 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -5357,38 +5834,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -5402,7 +5851,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5425,11 +5874,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5437,19 +5886,16 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5532,13 +5978,100 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5550,65 +6083,46 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5959,369 +6473,437 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33576663-77E0-D540-B42D-D62AEF6065F5}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A13" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="25" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" style="26" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" style="26" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="27" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.77734375" style="25"/>
+    <col min="1" max="1" width="19.6640625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" style="25" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="26" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.77734375" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="C1" s="47" t="str">
+      <c r="B1" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="77" t="str">
         <f>"Save As " &amp; B1  &amp; "_test_cases.xlsx"</f>
         <v>Save As conversion_test_cases.xlsx</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
     </row>
     <row r="2" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="38" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="36" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="25">
+        <v>123</v>
+      </c>
+      <c r="D4" s="25">
+        <v>123</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="38"/>
+    </row>
+    <row r="5" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="25">
+        <v>-456</v>
+      </c>
+      <c r="D5" s="25">
+        <v>-456</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="38"/>
+    </row>
+    <row r="6" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="25">
+        <v>0</v>
+      </c>
+      <c r="D6" s="25">
+        <v>0</v>
+      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="38"/>
+    </row>
+    <row r="7" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="25">
+        <v>0</v>
+      </c>
+      <c r="E7" s="25"/>
+      <c r="F7" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="38"/>
+    </row>
+    <row r="8" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="D8" s="25">
+        <v>1</v>
+      </c>
+      <c r="E8" s="25"/>
+      <c r="F8" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="38"/>
+    </row>
+    <row r="9" spans="1:7" ht="93" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="25">
+        <v>2147483648</v>
+      </c>
+      <c r="D9" s="25">
+        <v>2147483648</v>
+      </c>
+      <c r="E9" s="25">
+        <v>-214748364</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="25">
+        <v>12.34</v>
+      </c>
+      <c r="D12" s="25">
+        <v>12.34</v>
+      </c>
+      <c r="E12" s="25"/>
+      <c r="F12" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="25" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="D13" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="E13" s="25">
+        <v>12.3</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="E14" s="25"/>
+      <c r="F14" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" s="45">
+        <v>2.2250740000000002E-308</v>
+      </c>
+      <c r="D16" s="45">
+        <v>2.2250740000000002E-308</v>
+      </c>
+      <c r="E16" s="25">
+        <v>0</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="45">
+        <v>3.1415926535897901E-5</v>
+      </c>
+      <c r="D17" s="25">
+        <v>3.1000000000000001E-5</v>
+      </c>
+      <c r="E17" s="25"/>
+      <c r="F17" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B19" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D19" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E19" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F19" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G19" s="31" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="C4" s="26">
-        <v>123</v>
-      </c>
-      <c r="D4" s="26">
-        <v>123</v>
-      </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="C5" s="26">
-        <v>-456</v>
-      </c>
-      <c r="D5" s="26">
-        <v>-456</v>
-      </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="39" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="C6" s="26">
-        <v>0</v>
-      </c>
-      <c r="D6" s="26">
-        <v>0</v>
-      </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="39" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="66" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="D7" s="26">
-        <v>0</v>
-      </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="39" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="66" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="C8" s="26">
-        <v>1.5</v>
-      </c>
-      <c r="D8" s="26">
-        <v>1</v>
-      </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="39" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="93" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="C9" s="26">
-        <v>2147483648</v>
-      </c>
-      <c r="D9" s="26">
-        <v>2147483648</v>
-      </c>
-      <c r="E9" s="26">
-        <v>-214748364</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="30"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="29"/>
-    </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
-      <c r="B13" s="30"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="29"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
-      <c r="B14" s="30"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="29"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="30"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="29"/>
-    </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="30"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="29"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="30"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="29"/>
-    </row>
-    <row r="18" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G18" s="37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="32" t="s">
-        <v>0</v>
-      </c>
-    </row>
     <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="30"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="29"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="29"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
-      <c r="B21" s="30"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="29"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="29"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="28"/>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
-      <c r="B22" s="30"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="29"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="29"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="28"/>
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="30"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="29"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="29"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="28"/>
     </row>
     <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="30"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="29"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="29"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="28"/>
     </row>
     <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="30"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="29"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="29"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="28"/>
     </row>
     <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
-      <c r="B26" s="30"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="29"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="29"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="28"/>
     </row>
     <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="30"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="29"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="29"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="28"/>
     </row>
     <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="30"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="29"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="29"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6349,353 +6931,431 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.77734375" style="25" customWidth="1"/>
-    <col min="2" max="2" width="32" style="26" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" style="26" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" style="26" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="27" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.77734375" style="25"/>
+    <col min="1" max="1" width="35.77734375" style="24" customWidth="1"/>
+    <col min="2" max="2" width="32" style="25" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" style="25" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="26" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.77734375" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:7" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
     </row>
     <row r="2" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="38" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="49" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="50" t="s">
         <v>165</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="39"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="53"/>
     </row>
     <row r="5" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="39"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="53"/>
     </row>
     <row r="6" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="39"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="53"/>
     </row>
     <row r="7" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="39"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="53"/>
     </row>
     <row r="8" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="39"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="54"/>
     </row>
     <row r="9" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="39"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="54"/>
     </row>
     <row r="10" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="38" t="s">
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="11" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="30"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="29"/>
-    </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
-      <c r="B13" s="30"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="29"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
-      <c r="B14" s="30"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="29"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="30"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="29"/>
-    </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="30"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="29"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="30"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="29"/>
+      <c r="A12" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="56" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="55" t="s">
+        <v>201</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="55" t="s">
+        <v>208</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="38" t="s">
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="G18" s="37" t="s">
+      <c r="G18" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="E19" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="33" t="s">
+      <c r="F19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="32" t="s">
+      <c r="G19" s="11" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="30"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="29"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="29"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
-      <c r="B21" s="30"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="29"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="29"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="28"/>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
-      <c r="B22" s="30"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="29"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="29"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="28"/>
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="30"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="29"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="29"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="28"/>
     </row>
     <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="30"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="29"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="29"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="28"/>
     </row>
     <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="30"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="29"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="29"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="28"/>
     </row>
     <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
-      <c r="B26" s="30"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="29"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="29"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="28"/>
     </row>
     <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="30"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="29"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="29"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="28"/>
     </row>
     <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="30"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="29"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="29"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6720,618 +7380,897 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91BA7B41-F670-2145-8675-64359ECD791F}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A20" zoomScale="115" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.44140625" style="25" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" style="26" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" style="26" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="27" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.77734375" style="25"/>
+    <col min="1" max="1" width="43.44140625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" style="25" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="26" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.77734375" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:7" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="47" t="str">
+      <c r="C1" s="77" t="str">
         <f>"Save As " &amp; B1  &amp; "_test_cases.xlsx"</f>
         <v>Save As Manipulation_test_cases.xlsx</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
     </row>
     <row r="2" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="38" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="36" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="41" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="39"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="39"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="38"/>
     </row>
     <row r="6" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="39"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="38"/>
     </row>
     <row r="7" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="39"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="38"/>
     </row>
     <row r="8" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="39"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="38"/>
     </row>
     <row r="9" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="39"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="38"/>
     </row>
     <row r="10" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="39"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="38"/>
     </row>
     <row r="11" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="39"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="38"/>
     </row>
     <row r="12" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="39"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="38"/>
     </row>
     <row r="13" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="39"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="38"/>
     </row>
     <row r="14" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="39"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="38"/>
     </row>
     <row r="15" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="39"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="38"/>
     </row>
     <row r="16" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="39"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="38"/>
     </row>
     <row r="17" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="39"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="38"/>
     </row>
     <row r="18" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="39"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="38"/>
     </row>
     <row r="19" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="39"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="38"/>
     </row>
     <row r="20" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="39"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="38"/>
     </row>
     <row r="21" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="29" t="s">
+      <c r="F21" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="39" t="s">
+      <c r="G21" s="38" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="39"/>
-    </row>
-    <row r="23" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="45" t="s">
+      <c r="E22" s="25"/>
+      <c r="F22" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="38"/>
+    </row>
+    <row r="23" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="39"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="38"/>
     </row>
     <row r="24" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F24" s="38" t="s">
+      <c r="F24" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="G24" s="37" t="s">
+      <c r="G24" s="36" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="34" t="s">
+      <c r="E25" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="33" t="s">
+      <c r="F25" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="32" t="s">
+      <c r="G25" s="31" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
-      <c r="B26" s="30"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="29"/>
-    </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="30"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="29"/>
-    </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="30"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="29"/>
-    </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="30"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="29"/>
-    </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
-      <c r="B30" s="30"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="29"/>
-    </row>
-    <row r="31" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="31"/>
-      <c r="B31" s="30"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="29"/>
-    </row>
-    <row r="32" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="45" t="s">
+    <row r="26" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A26" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A27" s="55" t="s">
+        <v>213</v>
+      </c>
+      <c r="B27" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A28" s="55" t="s">
+        <v>216</v>
+      </c>
+      <c r="B28" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A29" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="B29" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A30" s="55" t="s">
+        <v>221</v>
+      </c>
+      <c r="B30" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A31" s="55" t="s">
+        <v>224</v>
+      </c>
+      <c r="B31" s="51" t="s">
+        <v>225</v>
+      </c>
+      <c r="C31" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A32" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="B32" s="51" t="s">
+        <v>227</v>
+      </c>
+      <c r="C32" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A33" s="55" t="s">
+        <v>228</v>
+      </c>
+      <c r="B33" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="C33" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A34" s="55" t="s">
+        <v>230</v>
+      </c>
+      <c r="B34" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="C34" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A35" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="B35" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A36" s="55" t="s">
+        <v>233</v>
+      </c>
+      <c r="B36" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A37" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="B37" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A38" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="B38" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A39" s="55" t="s">
+        <v>236</v>
+      </c>
+      <c r="B39" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="C39" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="F39" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A40" s="55" t="s">
+        <v>238</v>
+      </c>
+      <c r="B40" s="51" t="s">
+        <v>239</v>
+      </c>
+      <c r="C40" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A41" s="55" t="s">
+        <v>240</v>
+      </c>
+      <c r="B41" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="C41" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A42" s="55" t="s">
+        <v>241</v>
+      </c>
+      <c r="B42" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A43" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="B43" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="F43" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A44" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" s="6"/>
+    </row>
+    <row r="45" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="38" t="s">
+      <c r="B45" s="76"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="38"/>
+    </row>
+    <row r="46" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F46" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="G32" s="37" t="s">
+      <c r="G46" s="36" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="36" t="s">
+    <row r="47" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="35" t="s">
+      <c r="B47" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C47" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="34" t="s">
+      <c r="D47" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="E33" s="34" t="s">
+      <c r="E47" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="33" t="s">
+      <c r="F47" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="32" t="s">
+      <c r="G47" s="31" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
-      <c r="B34" s="30"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="29"/>
-    </row>
-    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="30"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="29"/>
-    </row>
-    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="30"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="29"/>
-    </row>
-    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
-      <c r="B37" s="30"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="29"/>
-    </row>
-    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="31"/>
-      <c r="B38" s="30"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="29"/>
-    </row>
-    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
-      <c r="B39" s="30"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="29"/>
-    </row>
-    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
-      <c r="B40" s="30"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="29"/>
-    </row>
-    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
-      <c r="B41" s="30"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="29"/>
-    </row>
-    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="31"/>
-      <c r="B42" s="30"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A45:E45"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A32:E32"/>
     <mergeCell ref="C1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="F4:F1048576">
@@ -7352,392 +8291,486 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACC7BE8-C1F7-B24C-B737-661CC7BCC416}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" activeCellId="1" sqref="A10:E11 I9"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" style="26" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" style="26" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="27" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.77734375" style="25"/>
+    <col min="1" max="1" width="14.33203125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" style="25" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="26" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.77734375" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="47" t="str">
+      <c r="C1" s="77" t="str">
         <f>"Save As " &amp; B1  &amp; "_test_cases.xlsx"</f>
         <v>Save As tokenizing _test_cases.xlsx</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
     </row>
     <row r="2" spans="1:7" ht="48.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="38" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="36" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="41" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="25" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="91.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="39" t="s">
+      <c r="E5" s="25"/>
+      <c r="F5" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="38" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="39" t="s">
+      <c r="E6" s="25"/>
+      <c r="F6" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="38" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="39" t="s">
+      <c r="E7" s="25"/>
+      <c r="F7" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="38" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="39" t="s">
+      <c r="E8" s="25"/>
+      <c r="F8" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="38" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="85.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="39" t="s">
+      <c r="G9" s="38" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="39" t="s">
+      <c r="E10" s="25"/>
+      <c r="F10" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="38" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="38" t="s">
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="37" t="s">
+      <c r="G11" s="36" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="32" t="s">
+      <c r="G12" s="31" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
-      <c r="B13" s="30"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="29"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
-      <c r="B14" s="30"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="29"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="30"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="29"/>
-    </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="30"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="29"/>
-    </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="30"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="29"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
-      <c r="B18" s="30"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="29"/>
+    <row r="13" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="F13" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="50"/>
+      <c r="F14" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="50"/>
+      <c r="F15" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="53" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>248</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="50"/>
+      <c r="F16" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="53" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>249</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E17" s="50"/>
+      <c r="F17" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="53" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="119.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>251</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>252</v>
+      </c>
+      <c r="E18" s="50" t="s">
+        <v>253</v>
+      </c>
+      <c r="F18" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="54" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="38" t="s">
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="G19" s="37" t="s">
+      <c r="G19" s="36" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E20" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="F20" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="32" t="s">
+      <c r="G20" s="31" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
-      <c r="B21" s="30"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="29"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="29"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="28"/>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
-      <c r="B22" s="30"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="29"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="29"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="28"/>
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="30"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="29"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="29"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="28"/>
     </row>
     <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="30"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="29"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="29"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="28"/>
     </row>
     <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="30"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="29"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="29"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="28"/>
     </row>
     <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
-      <c r="B26" s="30"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="29"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="29"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="28"/>
     </row>
     <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="30"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="29"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="29"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="28"/>
     </row>
     <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="30"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="29"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="29"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="28"/>
     </row>
     <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="30"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="29"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="29"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7762,10 +8795,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8467BC1A-7E6C-461F-88DC-8200B861EB6B}">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7775,55 +8808,55 @@
     <col min="3" max="3" width="29.44140625" style="6" customWidth="1"/>
     <col min="4" max="4" width="27.33203125" style="6" customWidth="1"/>
     <col min="5" max="5" width="19.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="8" customWidth="1"/>
     <col min="7" max="7" width="28.6640625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17" t="str" cm="1">
+      <c r="B1" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="B1" ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>main</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-    </row>
-    <row r="2" spans="1:9" s="9" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+    </row>
+    <row r="2" spans="1:9" s="8" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="23" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="22" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="G2" s="21" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="20" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="10" t="s">
@@ -7832,34 +8865,34 @@
       <c r="G3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="18"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="63"/>
-      <c r="H4" s="18"/>
+      <c r="C4" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="17"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -7868,38 +8901,38 @@
       <c r="D5" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="3"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>185</v>
+        <v>255</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="E6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="E6" s="3"/>
       <c r="F6" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="3"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>103</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -7908,18 +8941,18 @@
       <c r="D7" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="7"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="3"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="14" t="s">
         <v>135</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -7928,18 +8961,18 @@
       <c r="D8" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="3"/>
       <c r="F8" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="3"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>71</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -7948,308 +8981,306 @@
       <c r="D9" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="65" t="s">
+      <c r="E9" s="3"/>
+      <c r="F9" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="3" t="s">
         <v>68</v>
       </c>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="66" t="s">
+      <c r="D10" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="66" t="s">
-        <v>187</v>
-      </c>
-      <c r="F10" s="67" t="s">
+      <c r="E10" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="F10" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="66" t="s">
+      <c r="G10" s="5" t="s">
         <v>54</v>
       </c>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="66" t="s">
+      <c r="D11" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="66"/>
-      <c r="F11" s="68" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="66" t="s">
+      <c r="F11" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>50</v>
       </c>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="66"/>
-      <c r="F12" s="68" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="66" t="s">
+      <c r="F12" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>43</v>
       </c>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="70" t="s">
+      <c r="C13" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="70" t="s">
+      <c r="D13" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="66" t="s">
-        <v>188</v>
-      </c>
-      <c r="F13" s="71" t="s">
+      <c r="E13" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="F13" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="70" t="s">
+      <c r="G13" s="84" t="s">
         <v>32</v>
       </c>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="69"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="66" t="s">
-        <v>189</v>
-      </c>
-      <c r="F14" s="71"/>
-      <c r="G14" s="70"/>
+      <c r="A14" s="87"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="F14" s="90"/>
+      <c r="G14" s="84"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="69"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="66" t="s">
-        <v>190</v>
-      </c>
-      <c r="F15" s="71"/>
-      <c r="G15" s="70"/>
+      <c r="A15" s="87"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="F15" s="90"/>
+      <c r="G15" s="84"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="69"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="66" t="s">
-        <v>191</v>
-      </c>
-      <c r="F16" s="71"/>
-      <c r="G16" s="70"/>
+      <c r="A16" s="87"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F16" s="90"/>
+      <c r="G16" s="84"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="69"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="66" t="s">
-        <v>192</v>
-      </c>
-      <c r="F17" s="71"/>
-      <c r="G17" s="70"/>
+      <c r="A17" s="88"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F17" s="90"/>
+      <c r="G17" s="84"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="72" t="s">
-        <v>176</v>
-      </c>
-      <c r="C18" s="72">
+      <c r="B18" s="67" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" s="67">
         <v>123</v>
       </c>
-      <c r="D18" s="72">
+      <c r="D18" s="67">
         <v>123</v>
       </c>
-      <c r="E18" s="72"/>
-      <c r="F18" s="68" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="72"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="67"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="72" t="s">
-        <v>176</v>
-      </c>
-      <c r="C19" s="72">
+      <c r="B19" s="67" t="s">
+        <v>173</v>
+      </c>
+      <c r="C19" s="67">
         <v>-456</v>
       </c>
-      <c r="D19" s="72">
+      <c r="D19" s="67">
         <v>-456</v>
       </c>
-      <c r="E19" s="72"/>
-      <c r="F19" s="68" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="72"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="67"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="72" t="s">
-        <v>176</v>
-      </c>
-      <c r="C20" s="72">
+      <c r="B20" s="67" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20" s="67">
         <v>0</v>
       </c>
-      <c r="D20" s="72">
+      <c r="D20" s="67">
         <v>0</v>
       </c>
-      <c r="E20" s="72"/>
-      <c r="F20" s="68" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="72"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="67"/>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="C21" s="72" t="s">
-        <v>173</v>
-      </c>
-      <c r="D21" s="72">
+      <c r="C21" s="67" t="s">
+        <v>171</v>
+      </c>
+      <c r="D21" s="67">
         <v>0</v>
       </c>
-      <c r="E21" s="72"/>
-      <c r="F21" s="68" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" s="72"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="67"/>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="72" t="s">
+      <c r="B22" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="C22" s="72">
+      <c r="C22" s="67">
         <v>1.5</v>
       </c>
-      <c r="D22" s="72">
+      <c r="D22" s="67">
         <v>1</v>
       </c>
-      <c r="E22" s="72"/>
-      <c r="F22" s="68" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="72"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="67"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+    <row r="23" spans="1:9" ht="93" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="72" t="s">
+      <c r="B23" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="C23" s="72">
+      <c r="C23" s="67">
         <v>2147483648</v>
       </c>
-      <c r="D23" s="72">
+      <c r="D23" s="67">
         <v>2147483648</v>
       </c>
-      <c r="E23" s="72">
+      <c r="E23" s="67">
         <v>-214748364</v>
       </c>
-      <c r="F23" s="67" t="s">
+      <c r="F23" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="72" t="s">
+      <c r="G23" s="67" t="s">
         <v>167</v>
       </c>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" s="9" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="49" t="s">
+    <row r="24" spans="1:9" s="8" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="60" t="s">
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="G24" s="61" t="s">
-        <v>14</v>
+      <c r="G24" s="21" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="20" t="s">
         <v>11</v>
       </c>
       <c r="F25" s="10" t="s">
@@ -8259,391 +9290,912 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+    <row r="26" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
+      <c r="C26" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>196</v>
+      </c>
       <c r="E26" s="3"/>
-      <c r="F26" s="15"/>
+      <c r="F26" s="62" t="s">
+        <v>27</v>
+      </c>
       <c r="G26" s="3"/>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
+      <c r="C27" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>262</v>
+      </c>
       <c r="E27" s="3"/>
-      <c r="F27" s="15"/>
+      <c r="F27" s="62" t="s">
+        <v>27</v>
+      </c>
       <c r="G27" s="3"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+    <row r="28" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
+      <c r="C28" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>207</v>
+      </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="15"/>
+      <c r="F28" s="62" t="s">
+        <v>27</v>
+      </c>
       <c r="G28" s="3"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+    <row r="29" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
+      <c r="B29" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="E29" s="3"/>
-      <c r="F29" s="15"/>
+      <c r="F29" s="62" t="s">
+        <v>27</v>
+      </c>
       <c r="G29" s="3"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
+    <row r="30" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
+      <c r="B30" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="E30" s="3"/>
-      <c r="F30" s="15"/>
+      <c r="F30" s="62" t="s">
+        <v>27</v>
+      </c>
       <c r="G30" s="3"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+    <row r="31" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="3"/>
+      <c r="B31" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F31" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>244</v>
+      </c>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+    <row r="32" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="3"/>
+      <c r="B32" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="F32" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
+    <row r="33" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="3"/>
+      <c r="B33" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
+    <row r="34" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="3"/>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+      <c r="B34" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="F36" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A37" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="89" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="84" t="s">
+        <v>251</v>
+      </c>
+      <c r="D37" s="84" t="s">
+        <v>252</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="F37" s="90" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A38" s="87"/>
+      <c r="B38" s="89"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="F38" s="90"/>
+      <c r="G38" s="84"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="87"/>
+      <c r="B39" s="89"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="F39" s="90"/>
+      <c r="G39" s="84"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="87"/>
+      <c r="B40" s="89"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F40" s="90"/>
+      <c r="G40" s="84"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="87"/>
+      <c r="B41" s="89"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F41" s="90"/>
+      <c r="G41" s="84"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="88"/>
+      <c r="B42" s="89"/>
+      <c r="C42" s="84"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="F42" s="90"/>
+      <c r="G42" s="84"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="3"/>
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+      <c r="B43" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="C43" s="67">
+        <v>12.34</v>
+      </c>
+      <c r="D43" s="67">
+        <v>12.34</v>
+      </c>
+      <c r="E43" s="67"/>
+      <c r="F43" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" s="5"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="3"/>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="14" t="s">
+      <c r="B44" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="C44" s="67" t="s">
+        <v>182</v>
+      </c>
+      <c r="D44" s="67" t="s">
+        <v>183</v>
+      </c>
+      <c r="E44" s="67">
+        <v>12.3</v>
+      </c>
+      <c r="F44" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44" s="5"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="B45" s="69" t="s">
+        <v>173</v>
+      </c>
+      <c r="C45" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="67" t="s">
+        <v>185</v>
+      </c>
+      <c r="E45" s="67"/>
+      <c r="F45" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="G45" s="5"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" ht="237.6" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="3"/>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:9" s="9" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="G38" s="22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" s="11" t="s">
+      <c r="B46" s="69" t="s">
+        <v>173</v>
+      </c>
+      <c r="C46" s="70" t="s">
+        <v>187</v>
+      </c>
+      <c r="D46" s="70" t="s">
+        <v>188</v>
+      </c>
+      <c r="E46" s="67" t="s">
+        <v>189</v>
+      </c>
+      <c r="F46" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="G46" s="3"/>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="69" t="s">
+        <v>173</v>
+      </c>
+      <c r="C47" s="70">
+        <v>2.2300000000000001E-308</v>
+      </c>
+      <c r="D47" s="70">
+        <v>2.2300000000000001E-308</v>
+      </c>
+      <c r="E47" s="67">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="3"/>
-      <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="3"/>
-      <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="3"/>
-      <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="3"/>
-      <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="3"/>
-      <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="3"/>
-      <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="3"/>
-      <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="15"/>
+      <c r="F47" s="65" t="s">
+        <v>33</v>
+      </c>
       <c r="G47" s="3"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="15"/>
+    <row r="48" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="69" t="s">
+        <v>173</v>
+      </c>
+      <c r="C48" s="70">
+        <v>3.1399999999999998E-5</v>
+      </c>
+      <c r="D48" s="67">
+        <v>3.1000000000000001E-5</v>
+      </c>
+      <c r="E48" s="67"/>
+      <c r="F48" s="66" t="s">
+        <v>27</v>
+      </c>
       <c r="G48" s="3"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
+    <row r="49" spans="1:9" s="8" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="92" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="93"/>
+      <c r="C49" s="93"/>
+      <c r="D49" s="93"/>
+      <c r="E49" s="94"/>
+      <c r="F49" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G49" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="G51" s="3"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="E52" s="3"/>
+      <c r="F52" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="G52" s="3"/>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="G53" s="3"/>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D54" s="74">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3"/>
+      <c r="F54" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="G54" s="3"/>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="E55" s="3"/>
+      <c r="F55" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="G55" s="3"/>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D56" s="74">
+        <v>1</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F56" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A57" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A58" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="F58" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A59" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F59" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A60" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F61" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A62" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="89" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" s="84" t="s">
+        <v>288</v>
+      </c>
+      <c r="D62" s="84" t="s">
+        <v>289</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="F62" s="90" t="s">
+        <v>33</v>
+      </c>
+      <c r="G62" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A63" s="87"/>
+      <c r="B63" s="89"/>
+      <c r="C63" s="84"/>
+      <c r="D63" s="84"/>
+      <c r="E63" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="F63" s="90"/>
+      <c r="G63" s="84"/>
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A64" s="87"/>
+      <c r="B64" s="89"/>
+      <c r="C64" s="84"/>
+      <c r="D64" s="84"/>
+      <c r="E64" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="F64" s="90"/>
+      <c r="G64" s="84"/>
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="88"/>
+      <c r="B65" s="89"/>
+      <c r="C65" s="85"/>
+      <c r="D65" s="85"/>
+      <c r="E65" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F65" s="91"/>
+      <c r="G65" s="85"/>
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A66" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="3"/>
-      <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="14" t="s">
+      <c r="B66" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C66" s="7">
+        <v>1234567</v>
+      </c>
+      <c r="D66" s="7">
+        <v>1234567</v>
+      </c>
+      <c r="E66" s="3"/>
+      <c r="F66" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="G66" s="3"/>
+      <c r="I66" s="1"/>
+    </row>
+    <row r="67" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A67" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B50" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="3"/>
-      <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="14" t="s">
+      <c r="B67" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C67" s="71">
+        <v>-9.22337E+18</v>
+      </c>
+      <c r="D67" s="71">
+        <v>-9.22337E+18</v>
+      </c>
+      <c r="E67" s="3"/>
+      <c r="F67" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="G67" s="3"/>
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="4"/>
+      <c r="B68" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C68" s="72">
+        <v>9.22337E+18</v>
+      </c>
+      <c r="D68" s="72">
+        <v>9.22337E+18</v>
+      </c>
+      <c r="E68" s="4"/>
+      <c r="F68" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="G68" s="4"/>
+    </row>
+    <row r="69" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A69" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C69" s="73">
+        <v>1.2346E+209</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="F69" s="66" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A70" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="F70" s="66" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A71" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C71" s="6">
+        <v>-987654321</v>
+      </c>
+      <c r="D71" s="6">
+        <v>-987654321</v>
+      </c>
+      <c r="F71" s="66" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="G13:G17"/>
-    <mergeCell ref="A38:E38"/>
+  <mergeCells count="22">
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="B13:B17"/>
     <mergeCell ref="C13:C17"/>
     <mergeCell ref="D13:D17"/>
     <mergeCell ref="F13:F17"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="G13:G17"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="C37:C42"/>
+    <mergeCell ref="D37:D42"/>
+    <mergeCell ref="F37:F42"/>
+    <mergeCell ref="G37:G42"/>
+    <mergeCell ref="G62:G65"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="D62:D65"/>
+    <mergeCell ref="F62:F65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Final-Project-Test-Cases.xlsx
+++ b/Final-Project-Test-Cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jayva\Downloads\Final-Project-Bb01v2\Final-Project-Bb01v2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jayva\Downloads\Final-Project-Bb01v3\Final-Project-Bb01v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7D5B19-AF43-4CA0-B9A3-05C9F83A5122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A1F9ED-4B42-487A-88FD-A94C731BE67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1618,18 +1618,39 @@
           <rPr>
             <b/>
             <sz val="12"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-The purpose of the test, also known as Use Case Testing
-</t>
-        </r>
-        <r>
-          <rPr>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
             <sz val="12"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The purpose of the test, also known as Use Case Testing
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -1639,17 +1660,38 @@
           <rPr>
             <b/>
             <sz val="12"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-+</t>
-        </r>
-        <r>
-          <rPr>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
             <sz val="12"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -1658,9 +1700,19 @@
         </r>
         <r>
           <rPr>
-            <b/>
             <sz val="12"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -1669,7 +1721,7 @@
         <r>
           <rPr>
             <sz val="12"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -1754,7 +1806,7 @@
           <rPr>
             <b/>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -1763,8 +1815,19 @@
         </r>
         <r>
           <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -3407,18 +3470,39 @@
           <rPr>
             <b/>
             <sz val="12"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-The purpose of the test, also known as Use Case Testing
-</t>
-        </r>
-        <r>
-          <rPr>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
             <sz val="12"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The purpose of the test, also known as Use Case Testing
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -3428,17 +3512,38 @@
           <rPr>
             <b/>
             <sz val="12"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-+</t>
-        </r>
-        <r>
-          <rPr>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
             <sz val="12"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -3447,9 +3552,19 @@
         </r>
         <r>
           <rPr>
-            <b/>
             <sz val="12"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -3458,7 +3573,7 @@
         <r>
           <rPr>
             <sz val="12"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -3667,156 +3782,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{9AF61A35-8EB3-40F8-BBC2-B2E601F2D115}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-The purpose of the test, also known as Use Case Testing
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>The reason and intent of each test; this is similar to the rational for source code comments.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-+</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> means a positive test expecting a successful result.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>−</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> means a negative test to generate a validation message (PASS) or explore inaccurate, unexpected, undefined behaviours</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{DE5A7CA3-3411-4123-97E7-E4D7183AAE91}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Test Input:
-exact data for entry to test the purpose.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-This is similar to source code in a program: it describes exactly how it will be done.
-The What and Why is in the Description and Purpose.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{AA31D6AE-223A-4BA1-875B-97DCD373A372}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">expected Output:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">reference value to confirm 
-the test result – this is documented </t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">before </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>the test is run.
-This is similar to the programming debug process by which results of processing are examined to confirm expectations and assumptions (PASS) or to identify an unexpected issue (FAIL).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{B62ED5A6-E27D-49E1-A5D7-9A8899309B50}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">…what the heading says. </t>
-        </r>
-      </text>
-    </comment>
     <comment ref="F3" authorId="0" shapeId="0" xr:uid="{2B229C7D-7EE3-414E-BF85-B984A452DE88}">
       <text>
         <r>
@@ -3855,7 +3820,21 @@
         </r>
       </text>
     </comment>
-    <comment ref="A25" authorId="0" shapeId="0" xr:uid="{6042D241-1E3E-4EE5-B1E8-344B2984644E}">
+    <comment ref="E17" authorId="0" shapeId="0" xr:uid="{C70151EF-24A5-48BD-BBE5-3F99883DFABB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">…what the heading says. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A31" authorId="0" shapeId="0" xr:uid="{9836CAFB-1676-45A2-B128-23BB665358E1}">
       <text>
         <r>
           <rPr>
@@ -3899,7 +3878,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B25" authorId="0" shapeId="0" xr:uid="{5E833E7D-EEEB-4E16-B8C7-4DF76CE006E8}">
+    <comment ref="B31" authorId="0" shapeId="0" xr:uid="{76394C31-CC6A-443F-856B-B9E505AC5129}">
       <text>
         <r>
           <rPr>
@@ -3964,7 +3943,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C25" authorId="0" shapeId="0" xr:uid="{101A4DA4-CB12-4141-9B23-5642C51AB1AC}">
+    <comment ref="C31" authorId="0" shapeId="0" xr:uid="{60A2FF5C-FCB2-44D1-9E75-0B74877A989D}">
       <text>
         <r>
           <rPr>
@@ -3990,7 +3969,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D25" authorId="0" shapeId="0" xr:uid="{43B38EED-CC7A-41A8-8EC0-B085390912B3}">
+    <comment ref="D31" authorId="0" shapeId="0" xr:uid="{BF659CD8-BAF3-4C12-B572-156B71229E3D}">
       <text>
         <r>
           <rPr>
@@ -4035,13 +4014,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="E25" authorId="0" shapeId="0" xr:uid="{C70151EF-24A5-48BD-BBE5-3F99883DFABB}">
+    <comment ref="E31" authorId="0" shapeId="0" xr:uid="{C07AA38A-C9DD-4AEA-BCE7-50B9653F9760}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -4049,7 +4028,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F25" authorId="0" shapeId="0" xr:uid="{8B441857-6AF2-4400-8F30-DEC01ECD9BA0}">
+    <comment ref="F31" authorId="0" shapeId="0" xr:uid="{6E1CC602-D3D0-4102-916C-BF2983576C05}">
       <text>
         <r>
           <rPr>
@@ -4072,239 +4051,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G25" authorId="0" shapeId="0" xr:uid="{96269B40-21F5-4FA3-8086-872416DFD6EB}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Required for a test case that FAILs and/or
-for unexpected results.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A50" authorId="0" shapeId="0" xr:uid="{9836CAFB-1676-45A2-B128-23BB665358E1}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-general description of a test.
-Identify the code structure being tested </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">but do not use line numbers – </t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>they change</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B50" authorId="0" shapeId="0" xr:uid="{76394C31-CC6A-443F-856B-B9E505AC5129}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-The purpose of the test, also known as Use Case Testing
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>The reason and intent of each test; this is similar to the rational for source code comments.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-+</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> means a positive test expecting a successful result.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>−</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> means a negative test to generate a validation message (PASS) or explore inaccurate, unexpected, undefined behaviours</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C50" authorId="0" shapeId="0" xr:uid="{60A2FF5C-FCB2-44D1-9E75-0B74877A989D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Test Input:
-exact data for entry to test the purpose.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-This is similar to source code in a program: it describes exactly how it will be done.
-The What and Why is in the Description and Purpose.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D50" authorId="0" shapeId="0" xr:uid="{BF659CD8-BAF3-4C12-B572-156B71229E3D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">expected Output:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">reference value to confirm 
-the test result – this is documented </t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">before </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>the test is run.
-This is similar to the programming debug process by which results of processing are examined to confirm expectations and assumptions (PASS) or to identify an unexpected issue (FAIL).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E50" authorId="0" shapeId="0" xr:uid="{C07AA38A-C9DD-4AEA-BCE7-50B9653F9760}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">…what the heading says. </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F50" authorId="0" shapeId="0" xr:uid="{6E1CC602-D3D0-4102-916C-BF2983576C05}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Success?
-PASS or FAIL
-+ Positive test cases are expected to PASS.
-- Negative test cases:
-PASS if the program handles input that cannot be processed accurately.
-FAIL if an operating system message appears, or if the program gives inaccurate output. 
-E.g. data input of "ABC" when numeric input is prompted is a negative test -- you know it cannot be processed. 
-It is a PASS if the program recognises this condition and issues a diagnostic message to user. 
-It is a FAIL if the program returns an inaccurate response, e.g. atoi() returns zero in response to non-numeric parameter.  Comments are required to direct the programmer how to improve the code.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G50" authorId="0" shapeId="0" xr:uid="{C6A33B25-CB18-4D20-9BB9-F794950874F8}">
+    <comment ref="G31" authorId="0" shapeId="0" xr:uid="{C6A33B25-CB18-4D20-9BB9-F794950874F8}">
       <text>
         <r>
           <rPr>
@@ -4323,30 +4070,8 @@
 </comments>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="336">
   <si>
     <t>Comments</t>
   </si>
@@ -4403,10 +4128,6 @@
     <t>Success?</t>
   </si>
   <si>
-    <t>Actual output
-if unexpected</t>
-  </si>
-  <si>
     <t>Expected Output</t>
   </si>
   <si>
@@ -4417,49 +4138,7 @@
 ????? Date ?????</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Version 1
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Basic Test Cases to confirm module functionality when integrated into an application.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Version 2
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Basic Test Cases to confirm module functionality when integrated into an application.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Version 3
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Basic Test Cases to confirm module functionality when integrated into an application.</t>
-    </r>
+    <t>These test cases should come from the module test cases</t>
   </si>
   <si>
     <t>+ minimal edge case</t>
@@ -5183,7 +4862,211 @@
 Phrase #4 is 'work?"'</t>
   </si>
   <si>
-    <t>Jay Vakil</t>
+    <t xml:space="preserve"> "hellofromversion3"</t>
+  </si>
+  <si>
+    <t>"hello from version 3." (x 50)</t>
+  </si>
+  <si>
+    <t>PRESSING "ENTER" KEY                      \n THIS IS ALSO LIKE GIVE NULL as an input</t>
+  </si>
+  <si>
+    <t>"this is sentence1. this is sentence2.this is sentence3."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tokenize the string with the program specified delimiter "." </t>
+  </si>
+  <si>
+    <t>"this is version3..this is text should not be double deliminated."</t>
+  </si>
+  <si>
+    <t>Tokenize the string with the program-specified delimiter "." BUT the separated tokens include the additional whitespaces</t>
+  </si>
+  <si>
+    <t>Type a few sentences separated by dot(q - to quit):
+this is version3..this is text should not be double deliminated.
+Senetnce #1 is 'this is version3'
+Senetnce #2 is 'this is text should not be double deliminated'</t>
+  </si>
+  <si>
+    <t>Testing if the program can find string if both string and sub string are equal</t>
+  </si>
+  <si>
+    <t>Positive - Searching identical strings</t>
+  </si>
+  <si>
+    <t>Testing if the program can find substring at the beginning of a string</t>
+  </si>
+  <si>
+    <t>Positive - Searching string in beginning of a string</t>
+  </si>
+  <si>
+    <t>"Foo" "F"</t>
+  </si>
+  <si>
+    <t>Testing if the program can find substring at the end of a string</t>
+  </si>
+  <si>
+    <t>Positive - Searching string in end of a string</t>
+  </si>
+  <si>
+    <t>"Bar" "r"</t>
+  </si>
+  <si>
+    <t>Testing if the program can find substring that is a single character in a string</t>
+  </si>
+  <si>
+    <t>Positive - Searching single character in a string</t>
+  </si>
+  <si>
+    <t>"F" "F"</t>
+  </si>
+  <si>
+    <t>Testing if the program can find substring in a string with repeated occurences</t>
+  </si>
+  <si>
+    <t>Positive - Searching repeated substring in a string</t>
+  </si>
+  <si>
+    <t>"Foo" "o"</t>
+  </si>
+  <si>
+    <t>Testing if the program cannot find substring that is not found in a string</t>
+  </si>
+  <si>
+    <t>Positive - Searching substring not in a string</t>
+  </si>
+  <si>
+    <t>Not found</t>
+  </si>
+  <si>
+    <t>Testing if the program can find numeric substring in a string</t>
+  </si>
+  <si>
+    <t>Positive - Searching numbers in a string</t>
+  </si>
+  <si>
+    <t>"1234" "4"</t>
+  </si>
+  <si>
+    <t>Testing if the program can find special characters substring in a string</t>
+  </si>
+  <si>
+    <t>Positive - Searching special character in a string</t>
+  </si>
+  <si>
+    <t>"Fo#" "#"</t>
+  </si>
+  <si>
+    <t>Testing if the program can find an empty substring in a string</t>
+  </si>
+  <si>
+    <t>Negative - Edge case, substring is empty</t>
+  </si>
+  <si>
+    <t>Testing if the program can find escape characters substring in a string</t>
+  </si>
+  <si>
+    <t>Negative - Edge case, substring is an escape character</t>
+  </si>
+  <si>
+    <t>"Foo\n" "\n"</t>
+  </si>
+  <si>
+    <t>Testing if the program can find substring in a string greater than the buffer size</t>
+  </si>
+  <si>
+    <t>"Foooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo" "o"</t>
+  </si>
+  <si>
+    <t>Not found, 0, 0, 0</t>
+  </si>
+  <si>
+    <t>The program quits successfully </t>
+  </si>
+  <si>
+    <t>Testing if the program accepts integers</t>
+  </si>
+  <si>
+    <t>Giving integer input to the program</t>
+  </si>
+  <si>
+    <t>"12345"</t>
+  </si>
+  <si>
+    <t>The program accepts the integer input</t>
+  </si>
+  <si>
+    <t>Testing if the program accepts space characters</t>
+  </si>
+  <si>
+    <t>Giving space characters in the input</t>
+  </si>
+  <si>
+    <t>Giving input that has large number of characters</t>
+  </si>
+  <si>
+    <t>"qwertyuiopasdfghjklzxcvbnmqwertyuiopasdfghjklzxcvbnmqwertyuiopasdfghjklzxcvbnmqwertyuiopasdfghjklzxcvbnm"</t>
+  </si>
+  <si>
+    <t>The program displays only till the provided max limit</t>
+  </si>
+  <si>
+    <t>"Hey" "q"</t>
+  </si>
+  <si>
+    <t>The program quits successfully as soon as "q" is entered</t>
+  </si>
+  <si>
+    <t>The program quits successfully</t>
+  </si>
+  <si>
+    <t>this is version3..this is text should not be double deliminated.</t>
+  </si>
+  <si>
+    <t>Type a few sentences separated by dot(q - to quit):</t>
+  </si>
+  <si>
+    <t>Senetnce #1 is 'this is version3'</t>
+  </si>
+  <si>
+    <t>Senetnce #2 is 'this is text should not be double deliminated'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To crash </t>
+  </si>
+  <si>
+    <t>123abc456</t>
+  </si>
+  <si>
+    <t>To crash</t>
+  </si>
+  <si>
+    <t>Program</t>
+  </si>
+  <si>
+    <t>or module:</t>
+  </si>
+  <si>
+    <t>Basic Test Cases to confirm module functionality when integrated into an application.</t>
+  </si>
+  <si>
+    <t>Run by:</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>????? Tester's Name ?????</t>
+  </si>
+  <si>
+    <t>????? Date ?????</t>
+  </si>
+  <si>
+    <t>Actual output</t>
+  </si>
+  <si>
+    <t>if unexpected</t>
   </si>
   <si>
     <t>"Suiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiii"</t>
@@ -5234,73 +5117,7 @@
     <t>conversions</t>
   </si>
   <si>
-    <t xml:space="preserve">To crash </t>
-  </si>
-  <si>
-    <t>123abc456</t>
-  </si>
-  <si>
-    <t>To crash</t>
-  </si>
-  <si>
-    <t>The program quits successfully</t>
-  </si>
-  <si>
-    <t>"12345"</t>
-  </si>
-  <si>
-    <t>The program accepts the integer input</t>
-  </si>
-  <si>
-    <t>"qwertyuiopasdfghjklzxcvbnmqwertyuiopasdfghjklzxcvbnmqwertyuiopasdfghjklzxcvbnmqwertyuiopasdfghjklzxcvbnm"</t>
-  </si>
-  <si>
     <t>"qwertyuiopasdfghjklzxcvbnmqwertyuiopasdfghjklzxcvbnmqwertyuiopasdfghjklzxcvbnm"</t>
-  </si>
-  <si>
-    <t>Negative - Edge case, substring is empty</t>
-  </si>
-  <si>
-    <t>Positive - Searching substring not in a string</t>
-  </si>
-  <si>
-    <t>Not found</t>
-  </si>
-  <si>
-    <t>Not found, 0, 0, 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "hellofromversion3"</t>
-  </si>
-  <si>
-    <t>"hello from version 3." (x 50)</t>
-  </si>
-  <si>
-    <t>PRESSING "ENTER" KEY                      \n THIS IS ALSO LIKE GIVE NULL as an input</t>
-  </si>
-  <si>
-    <t>"this is sentence1. this is sentence2.this is sentence3."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tokenize the string with the program specified delimiter "." </t>
-  </si>
-  <si>
-    <t>"this is version3..this is text should not be double deliminated."</t>
-  </si>
-  <si>
-    <t>Tokenize the string with the program-specified delimiter "." BUT the separated tokens include the additional whitespaces</t>
-  </si>
-  <si>
-    <t>Type a few sentences separated by dot(q - to quit):</t>
-  </si>
-  <si>
-    <t>this is version3..this is text should not be double deliminated.</t>
-  </si>
-  <si>
-    <t>Senetnce #1 is 'this is version3'</t>
-  </si>
-  <si>
-    <t>Senetnce #2 is 'this is text should not be double deliminated'</t>
   </si>
 </sst>
 </file>
@@ -5469,19 +5286,19 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5538,12 +5355,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFB4B4"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -5633,21 +5474,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -5790,7 +5616,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -5800,24 +5626,33 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="thin">
         <color indexed="64"/>
-      </top>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -5825,12 +5660,71 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
-      </bottom>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -5851,7 +5745,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5880,14 +5774,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -5895,30 +5786,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -5939,25 +5821,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="7" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="7" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -5969,13 +5851,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5984,16 +5866,16 @@
     <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6024,8 +5906,71 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6033,96 +5978,91 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6471,439 +6411,525 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33576663-77E0-D540-B42D-D62AEF6065F5}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A12" zoomScale="75" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" style="25" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" style="25" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="26" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.77734375" style="24"/>
+    <col min="1" max="1" width="19.6640625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" style="21" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.77734375" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="42" t="s">
-        <v>178</v>
-      </c>
-      <c r="C1" s="77" t="str">
+      <c r="B1" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="60" t="str">
         <f>"Save As " &amp; B1  &amp; "_test_cases.xlsx"</f>
         <v>Save As conversion_test_cases.xlsx</v>
       </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
     </row>
     <row r="2" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="75" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="37" t="s">
+      <c r="A2" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="32" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="21">
+        <v>123</v>
+      </c>
+      <c r="D4" s="21">
+        <v>123</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="34"/>
+    </row>
+    <row r="5" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="21">
+        <v>-456</v>
+      </c>
+      <c r="D5" s="21">
+        <v>-456</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="34"/>
+    </row>
+    <row r="6" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="21">
+        <v>0</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="34"/>
+    </row>
+    <row r="7" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="21">
+        <v>0</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="34"/>
+    </row>
+    <row r="8" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="D8" s="21">
+        <v>1</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="34"/>
+    </row>
+    <row r="9" spans="1:7" ht="93" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="21">
+        <v>2147483648</v>
+      </c>
+      <c r="D9" s="21">
+        <v>2147483648</v>
+      </c>
+      <c r="E9" s="21">
+        <v>-214748364</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="B12" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="21">
+        <v>12.34</v>
+      </c>
+      <c r="D12" s="21">
+        <v>12.34</v>
+      </c>
+      <c r="E12" s="21"/>
+      <c r="F12" s="24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="E13" s="21">
+        <v>12.3</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="41">
+        <v>2.2250740000000002E-308</v>
+      </c>
+      <c r="D16" s="41">
+        <v>2.2250740000000002E-308</v>
+      </c>
+      <c r="E16" s="21">
+        <v>0</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="41">
+        <v>3.1415926535897901E-5</v>
+      </c>
+      <c r="D17" s="21">
+        <v>3.1000000000000001E-5</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B19" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C19" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="41" t="s">
+      <c r="D19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="27" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>173</v>
-      </c>
-      <c r="C4" s="25">
-        <v>123</v>
-      </c>
-      <c r="D4" s="25">
-        <v>123</v>
-      </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="38"/>
-    </row>
-    <row r="5" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>173</v>
-      </c>
-      <c r="C5" s="25">
-        <v>-456</v>
-      </c>
-      <c r="D5" s="25">
-        <v>-456</v>
-      </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="38"/>
-    </row>
-    <row r="6" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>173</v>
-      </c>
-      <c r="C6" s="25">
-        <v>0</v>
-      </c>
-      <c r="D6" s="25">
-        <v>0</v>
-      </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="38"/>
-    </row>
-    <row r="7" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="D7" s="25">
-        <v>0</v>
-      </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="38"/>
-    </row>
-    <row r="8" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="68" t="s">
         <v>170</v>
       </c>
-      <c r="B8" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="C8" s="25">
-        <v>1.5</v>
-      </c>
-      <c r="D8" s="25">
-        <v>1</v>
-      </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="38"/>
-    </row>
-    <row r="9" spans="1:7" ht="93" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="C9" s="25">
-        <v>2147483648</v>
-      </c>
-      <c r="D9" s="25">
-        <v>2147483648</v>
-      </c>
-      <c r="E9" s="25">
-        <v>-214748364</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="38" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="75" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="B12" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="C12" s="25">
-        <v>12.34</v>
-      </c>
-      <c r="D12" s="25">
-        <v>12.34</v>
-      </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="E13" s="25">
-        <v>12.3</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="C15" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="D15" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="C16" s="45">
-        <v>2.2250740000000002E-308</v>
-      </c>
-      <c r="D16" s="45">
-        <v>2.2250740000000002E-308</v>
-      </c>
-      <c r="E16" s="25">
-        <v>0</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="C17" s="45">
-        <v>3.1415926535897901E-5</v>
-      </c>
-      <c r="D17" s="25">
-        <v>3.1000000000000001E-5</v>
-      </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G18" s="36" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="31" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="29"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="28"/>
+      <c r="C20" s="69">
+        <v>1234567</v>
+      </c>
+      <c r="D20" s="69">
+        <v>1234567</v>
+      </c>
+      <c r="E20" s="69"/>
+      <c r="F20" s="70" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="29"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="28"/>
+      <c r="A21" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="68" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21" s="71">
+        <v>-9.22E+18</v>
+      </c>
+      <c r="D21" s="71">
+        <v>-9.22E+18</v>
+      </c>
+      <c r="E21" s="69"/>
+      <c r="F21" s="70" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="29"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="28"/>
+      <c r="A22" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="68" t="s">
+        <v>170</v>
+      </c>
+      <c r="C22" s="71">
+        <v>9.22E+18</v>
+      </c>
+      <c r="D22" s="71">
+        <v>9.22E+18</v>
+      </c>
+      <c r="E22" s="69"/>
+      <c r="F22" s="70" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="29"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="28"/>
+      <c r="A23" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" s="71">
+        <v>1.2299999999999999E+209</v>
+      </c>
+      <c r="D23" s="69" t="s">
+        <v>307</v>
+      </c>
+      <c r="E23" s="69"/>
+      <c r="F23" s="70" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
-      <c r="B24" s="29"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="28"/>
-    </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="29"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="28"/>
+      <c r="A24" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" s="69" t="s">
+        <v>308</v>
+      </c>
+      <c r="D24" s="69" t="s">
+        <v>309</v>
+      </c>
+      <c r="E24" s="69"/>
+      <c r="F24" s="70" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" s="69">
+        <v>-987654321</v>
+      </c>
+      <c r="D25" s="69">
+        <v>-987654321</v>
+      </c>
+      <c r="E25" s="69"/>
+      <c r="F25" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="29"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="28"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="25"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="24"/>
     </row>
     <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="29"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="28"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="25"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="24"/>
     </row>
     <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="29"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="28"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="25"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="24"/>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C38" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6912,7 +6938,7 @@
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="C1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F4:F1048576">
+  <conditionalFormatting sqref="F4:F19 F26:F1048576">
     <cfRule type="expression" dxfId="7" priority="1">
       <formula>ISNUMBER(SEARCH("PASS",$F4))</formula>
     </cfRule>
@@ -6931,431 +6957,503 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.77734375" style="24" customWidth="1"/>
-    <col min="2" max="2" width="32" style="25" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" style="25" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" style="25" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="26" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.77734375" style="24"/>
+    <col min="1" max="1" width="35.77734375" style="20" customWidth="1"/>
+    <col min="2" max="2" width="32" style="21" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" style="21" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.77734375" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="81" t="s">
-        <v>166</v>
-      </c>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
+      <c r="C1" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
     </row>
     <row r="2" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="79" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="48" t="s">
+      <c r="A2" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="21" t="s">
-        <v>14</v>
+      <c r="G2" s="19" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="20" t="s">
+      <c r="D3" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="45" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="46"/>
+      <c r="F4" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="49"/>
+    </row>
+    <row r="5" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5" s="46"/>
+      <c r="F5" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="49"/>
+    </row>
+    <row r="6" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" s="46"/>
+      <c r="F6" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="49"/>
+    </row>
+    <row r="7" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="46"/>
+      <c r="F7" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="49"/>
+    </row>
+    <row r="8" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="46"/>
+      <c r="F8" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="50"/>
+    </row>
+    <row r="9" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="46"/>
+      <c r="F9" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="50"/>
+    </row>
+    <row r="10" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="49" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
-        <v>165</v>
-      </c>
-      <c r="B4" s="51" t="s">
-        <v>164</v>
-      </c>
-      <c r="C4" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>163</v>
-      </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="53"/>
-    </row>
-    <row r="5" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
-        <v>162</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>161</v>
-      </c>
-      <c r="C5" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="53"/>
-    </row>
-    <row r="6" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
-        <v>158</v>
-      </c>
-      <c r="B6" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="D6" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="53"/>
-    </row>
-    <row r="7" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="50" t="s">
-        <v>154</v>
-      </c>
-      <c r="B7" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="C7" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="53"/>
-    </row>
-    <row r="8" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="B8" s="51" t="s">
-        <v>149</v>
-      </c>
-      <c r="C8" s="50" t="s">
-        <v>148</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="E8" s="50"/>
-      <c r="F8" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="54"/>
-    </row>
-    <row r="9" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="50" t="s">
-        <v>146</v>
-      </c>
-      <c r="B9" s="51" t="s">
-        <v>145</v>
-      </c>
-      <c r="C9" s="50" t="s">
-        <v>144</v>
-      </c>
-      <c r="D9" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="54"/>
-    </row>
-    <row r="10" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="48" t="s">
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="21" t="s">
-        <v>14</v>
+      <c r="G10" s="19" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>22</v>
+      <c r="D11" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="55" t="s">
-        <v>165</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>164</v>
+      <c r="A12" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>161</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="55" t="s">
+      <c r="D13" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="E13" s="6"/>
+      <c r="F13" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="52" t="s">
         <v>194</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="B14" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="56" t="s">
+      <c r="D14" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="E14" s="6"/>
+      <c r="F14" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="B15" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="C15" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="55" t="s">
+      <c r="E15" s="6"/>
+      <c r="F15" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B16" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="55" t="s">
+      <c r="D16" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="E16" s="6"/>
+      <c r="F16" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="51" t="s">
         <v>205</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="B17" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="55" t="s">
+      <c r="D17" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B17" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>211</v>
-      </c>
       <c r="E17" s="6"/>
-      <c r="F17" s="52" t="s">
-        <v>27</v>
+      <c r="F17" s="48" t="s">
+        <v>24</v>
       </c>
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="80"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="48" t="s">
+      <c r="A18" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="G18" s="21" t="s">
-        <v>14</v>
+      <c r="G18" s="19" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>22</v>
+      <c r="D19" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="29"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="28"/>
+      <c r="A20" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="F20" s="56" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="29"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="28"/>
+      <c r="A21" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="B21" s="57" t="s">
+        <v>191</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="F21" s="56" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="29"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="28"/>
+      <c r="A22" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="B22" s="57" t="s">
+        <v>292</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="F22" s="56" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="29"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="28"/>
+      <c r="A23" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="B23" s="57" t="s">
+        <v>296</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="F23" s="56" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
-      <c r="B24" s="29"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="28"/>
+      <c r="A24" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="B24" s="57" t="s">
+        <v>297</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="F24" s="56" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="29"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="28"/>
+      <c r="A25" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="B25" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="F25" s="56" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="29"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="28"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="25"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="24"/>
     </row>
     <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="29"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="28"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="25"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="24"/>
     </row>
     <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="29"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="28"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="25"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7364,7 +7462,7 @@
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="C1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F4:F1048576">
+  <conditionalFormatting sqref="F4:F19 F26:F1048576">
     <cfRule type="expression" dxfId="5" priority="1">
       <formula>ISNUMBER(SEARCH("PASS",$F4))</formula>
     </cfRule>
@@ -7380,890 +7478,1103 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91BA7B41-F670-2145-8675-64359ECD791F}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="115" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView topLeftCell="A39" zoomScale="115" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.44140625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" style="25" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" style="25" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="26" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.77734375" style="24"/>
+    <col min="1" max="1" width="43.44140625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" style="21" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.77734375" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="C1" s="77" t="str">
+      <c r="B1" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="60" t="str">
         <f>"Save As " &amp; B1  &amp; "_test_cases.xlsx"</f>
         <v>Save As Manipulation_test_cases.xlsx</v>
       </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
     </row>
     <row r="2" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="34"/>
+    </row>
+    <row r="5" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="34"/>
+    </row>
+    <row r="6" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="34"/>
+    </row>
+    <row r="7" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="34"/>
+    </row>
+    <row r="8" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="34"/>
+    </row>
+    <row r="9" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="34"/>
+    </row>
+    <row r="10" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="34"/>
+    </row>
+    <row r="11" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="34"/>
+    </row>
+    <row r="12" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="21"/>
+      <c r="F12" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="34"/>
+    </row>
+    <row r="13" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="34"/>
+    </row>
+    <row r="14" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="34"/>
+    </row>
+    <row r="15" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="21"/>
+      <c r="F15" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="34"/>
+    </row>
+    <row r="16" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="34"/>
+    </row>
+    <row r="17" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="34"/>
+    </row>
+    <row r="18" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="34"/>
+    </row>
+    <row r="19" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="34"/>
+    </row>
+    <row r="20" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="34"/>
+    </row>
+    <row r="21" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="37" t="s">
+      <c r="E22" s="21"/>
+      <c r="F22" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="34"/>
+    </row>
+    <row r="23" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="34"/>
+    </row>
+    <row r="24" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F24" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="36" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="G24" s="32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B25" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C25" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="32" t="s">
+      <c r="D25" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A26" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A27" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="C27" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A28" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>214</v>
+      </c>
+      <c r="C28" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A29" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="B29" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="C29" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A30" s="51" t="s">
+        <v>218</v>
+      </c>
+      <c r="B30" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="C30" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A31" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="B31" s="47" t="s">
+        <v>222</v>
+      </c>
+      <c r="C31" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A32" s="51" t="s">
+        <v>223</v>
+      </c>
+      <c r="B32" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="C32" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A33" s="51" t="s">
+        <v>225</v>
+      </c>
+      <c r="B33" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="C33" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A34" s="51" t="s">
+        <v>227</v>
+      </c>
+      <c r="B34" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="C34" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A35" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="B35" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A36" s="51" t="s">
+        <v>230</v>
+      </c>
+      <c r="B36" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A37" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="B37" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A38" s="51" t="s">
+        <v>232</v>
+      </c>
+      <c r="B38" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A39" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="B39" s="47" t="s">
+        <v>234</v>
+      </c>
+      <c r="C39" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="F39" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A40" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="B40" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="C40" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A41" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="B41" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="C41" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A42" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="B42" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A43" s="51" t="s">
+        <v>239</v>
+      </c>
+      <c r="B43" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="F43" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A44" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G44" s="6"/>
+    </row>
+    <row r="45" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="B45" s="59"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="34"/>
+    </row>
+    <row r="46" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F46" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G46" s="32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="27" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="38"/>
-    </row>
-    <row r="5" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="38"/>
-    </row>
-    <row r="6" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="B6" s="40" t="s">
+    <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D48" s="15">
+        <v>0</v>
+      </c>
+      <c r="E48" s="15"/>
+      <c r="F48" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" s="15"/>
+    </row>
+    <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="D49" s="15">
+        <v>0</v>
+      </c>
+      <c r="E49" s="15"/>
+      <c r="F49" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="G49" s="15"/>
+    </row>
+    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D50" s="15">
+        <v>2</v>
+      </c>
+      <c r="E50" s="15"/>
+      <c r="F50" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="G50" s="15"/>
+    </row>
+    <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="D51" s="15">
+        <v>0</v>
+      </c>
+      <c r="E51" s="15"/>
+      <c r="F51" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="G51" s="15"/>
+    </row>
+    <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="D52" s="15">
+        <v>1</v>
+      </c>
+      <c r="E52" s="15"/>
+      <c r="F52" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="G52" s="15"/>
+    </row>
+    <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="C53" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="38"/>
-    </row>
-    <row r="7" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="38"/>
-    </row>
-    <row r="8" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="38"/>
-    </row>
-    <row r="9" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="38"/>
-    </row>
-    <row r="10" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="B10" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="38"/>
-    </row>
-    <row r="11" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="38"/>
-    </row>
-    <row r="12" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="38"/>
-    </row>
-    <row r="13" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="38"/>
-    </row>
-    <row r="14" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" s="40" t="s">
+      <c r="D53" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="E53" s="15"/>
+      <c r="F53" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="G53" s="15"/>
+    </row>
+    <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="D54" s="15">
+        <v>3</v>
+      </c>
+      <c r="E54" s="15"/>
+      <c r="F54" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="G54" s="15"/>
+    </row>
+    <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="D55" s="15">
+        <v>2</v>
+      </c>
+      <c r="E55" s="15"/>
+      <c r="F55" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="G55" s="15"/>
+    </row>
+    <row r="56" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="C56" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="38"/>
-    </row>
-    <row r="15" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="38"/>
-    </row>
-    <row r="16" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="38"/>
-    </row>
-    <row r="17" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="38"/>
-    </row>
-    <row r="18" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="38"/>
-    </row>
-    <row r="19" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="38"/>
-    </row>
-    <row r="20" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="38"/>
-    </row>
-    <row r="21" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="38" t="s">
+      <c r="D56" s="15">
+        <v>0</v>
+      </c>
+      <c r="E56" s="15"/>
+      <c r="F56" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="G56" s="15"/>
+    </row>
+    <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="D57" s="15">
+        <v>3</v>
+      </c>
+      <c r="E57" s="15"/>
+      <c r="F57" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="G57" s="15"/>
+    </row>
+    <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="B58" s="15" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="38"/>
-    </row>
-    <row r="23" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="75" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="76"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="38"/>
-    </row>
-    <row r="24" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F24" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G24" s="36" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="31" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="57" t="s">
-        <v>140</v>
-      </c>
-      <c r="B26" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="C26" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="55" t="s">
-        <v>213</v>
-      </c>
-      <c r="B27" s="51" t="s">
-        <v>214</v>
-      </c>
-      <c r="C27" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="55" t="s">
-        <v>216</v>
-      </c>
-      <c r="B28" s="51" t="s">
-        <v>217</v>
-      </c>
-      <c r="C28" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="55" t="s">
-        <v>219</v>
-      </c>
-      <c r="B29" s="51" t="s">
-        <v>220</v>
-      </c>
-      <c r="C29" s="50" t="s">
-        <v>126</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A30" s="55" t="s">
-        <v>221</v>
-      </c>
-      <c r="B30" s="51" t="s">
-        <v>222</v>
-      </c>
-      <c r="C30" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="55" t="s">
-        <v>224</v>
-      </c>
-      <c r="B31" s="51" t="s">
-        <v>225</v>
-      </c>
-      <c r="C31" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A32" s="55" t="s">
-        <v>226</v>
-      </c>
-      <c r="B32" s="51" t="s">
-        <v>227</v>
-      </c>
-      <c r="C32" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A33" s="55" t="s">
-        <v>228</v>
-      </c>
-      <c r="B33" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="C33" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A34" s="55" t="s">
-        <v>230</v>
-      </c>
-      <c r="B34" s="51" t="s">
-        <v>231</v>
-      </c>
-      <c r="C34" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="G34" s="6"/>
-    </row>
-    <row r="35" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A35" s="55" t="s">
-        <v>232</v>
-      </c>
-      <c r="B35" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="C35" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="G35" s="6"/>
-    </row>
-    <row r="36" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A36" s="55" t="s">
-        <v>233</v>
-      </c>
-      <c r="B36" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="C36" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="G36" s="6"/>
-    </row>
-    <row r="37" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A37" s="55" t="s">
-        <v>234</v>
-      </c>
-      <c r="B37" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="C37" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="G37" s="6"/>
-    </row>
-    <row r="38" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A38" s="55" t="s">
-        <v>235</v>
-      </c>
-      <c r="B38" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="C38" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="G38" s="6"/>
-    </row>
-    <row r="39" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A39" s="55" t="s">
-        <v>236</v>
-      </c>
-      <c r="B39" s="51" t="s">
-        <v>237</v>
-      </c>
-      <c r="C39" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="G39" s="6"/>
-    </row>
-    <row r="40" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A40" s="55" t="s">
-        <v>238</v>
-      </c>
-      <c r="B40" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="C40" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="G40" s="6"/>
-    </row>
-    <row r="41" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A41" s="55" t="s">
-        <v>240</v>
-      </c>
-      <c r="B41" s="51" t="s">
-        <v>212</v>
-      </c>
-      <c r="C41" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="G41" s="6"/>
-    </row>
-    <row r="42" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A42" s="55" t="s">
+      <c r="C58" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="D58" s="15">
+        <v>1</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="F58" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="G58" s="15" t="s">
         <v>241</v>
-      </c>
-      <c r="B42" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="C42" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="G42" s="6"/>
-    </row>
-    <row r="43" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A43" s="55" t="s">
-        <v>242</v>
-      </c>
-      <c r="B43" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="F43" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A44" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="B44" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="C44" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="G44" s="6"/>
-    </row>
-    <row r="45" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="B45" s="76"/>
-      <c r="C45" s="76"/>
-      <c r="D45" s="76"/>
-      <c r="E45" s="76"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="38"/>
-    </row>
-    <row r="46" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F46" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G46" s="36" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B47" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="E47" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F47" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" s="31" t="s">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8273,7 +8584,7 @@
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="C1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F4:F1048576">
+  <conditionalFormatting sqref="F4:F47 F59:F1048576">
     <cfRule type="expression" dxfId="3" priority="1">
       <formula>ISNUMBER(SEARCH("PASS",$F4))</formula>
     </cfRule>
@@ -8291,486 +8602,580 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACC7BE8-C1F7-B24C-B737-661CC7BCC416}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="24" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" style="25" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" style="25" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="26" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.77734375" style="24"/>
+    <col min="1" max="1" width="14.33203125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" style="21" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.77734375" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="77" t="str">
+      <c r="B1" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="60" t="str">
         <f>"Save As " &amp; B1  &amp; "_test_cases.xlsx"</f>
         <v>Save As tokenizing _test_cases.xlsx</v>
       </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
     </row>
     <row r="2" spans="1:7" ht="48.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="75" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="37" t="s">
+      <c r="A2" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="36" t="s">
-        <v>60</v>
+      <c r="G2" s="32" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="91.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="85.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="33" t="s">
+    </row>
+    <row r="11" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="91.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="38" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="38" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="85.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="38" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="38" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="75" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="37" t="s">
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="36" t="s">
-        <v>14</v>
+      <c r="G11" s="32" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="31" t="s">
+      <c r="D12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="27" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>242</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F13" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="46"/>
+      <c r="F14" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="46"/>
+      <c r="F15" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="49" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="55" t="s">
         <v>245</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D16" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="46"/>
+      <c r="F16" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="49" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="55" t="s">
         <v>246</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="D17" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="F13" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="50" t="s">
+      <c r="E17" s="46"/>
+      <c r="F17" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="119.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>248</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="E18" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="F18" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="50" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>251</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="46"/>
+      <c r="F21" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="49" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>252</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F22" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A23" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="46"/>
+      <c r="F23" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="50"/>
-      <c r="F14" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="53" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="50" t="s">
+    </row>
+    <row r="24" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="50"/>
-      <c r="F15" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="53" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="51" t="s">
+      <c r="B24" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="59" t="s">
-        <v>248</v>
-      </c>
-      <c r="D16" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="50"/>
-      <c r="F16" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="53" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="59" t="s">
-        <v>249</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="E17" s="50"/>
-      <c r="F17" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="53" t="s">
+      <c r="C24" s="55" t="s">
+        <v>253</v>
+      </c>
+      <c r="D24" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="46"/>
+      <c r="F24" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="49" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A25" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="47" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="119.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="59" t="s">
-        <v>251</v>
-      </c>
-      <c r="D18" s="50" t="s">
-        <v>252</v>
-      </c>
-      <c r="E18" s="50" t="s">
-        <v>253</v>
-      </c>
-      <c r="F18" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="54" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="76"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" s="36" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="31" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="29"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="28"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="29"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="28"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="29"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="28"/>
-    </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
-      <c r="B24" s="29"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="28"/>
-    </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="29"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="28"/>
-    </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="29"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="28"/>
+      <c r="C25" s="55" t="s">
+        <v>254</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="E25" s="46"/>
+      <c r="F25" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="145.19999999999999" x14ac:dyDescent="0.25">
+      <c r="A26" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="55" t="s">
+        <v>256</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="E26" s="46" t="s">
+        <v>258</v>
+      </c>
+      <c r="F26" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="50" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="29"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="28"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="25"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="24"/>
     </row>
     <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="29"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="28"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="25"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="24"/>
     </row>
     <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
-      <c r="B29" s="29"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="28"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="25"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8795,10 +9200,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8467BC1A-7E6C-461F-88DC-8200B861EB6B}">
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:G71"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8812,1390 +9217,1527 @@
     <col min="7" max="7" width="28.6640625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="72" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1" s="85" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C1" s="87" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+    </row>
+    <row r="2" spans="1:9" s="8" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="73" t="s">
+        <v>311</v>
+      </c>
+      <c r="B2" s="86"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+    </row>
+    <row r="3" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="74" t="s">
+        <v>313</v>
+      </c>
+      <c r="G3" s="76" t="s">
+        <v>315</v>
+      </c>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="92" t="s">
+        <v>312</v>
+      </c>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="75" t="s">
+        <v>314</v>
+      </c>
+      <c r="G4" s="77" t="s">
+        <v>316</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="95" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="97" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="78" t="s">
+        <v>317</v>
+      </c>
+      <c r="F5" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" t="str">
+        <f>$H$4</f>
+        <v>These test cases should come from the module test cases</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="96"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="79" t="s">
+        <v>318</v>
+      </c>
+      <c r="F6" s="99"/>
+      <c r="G6" s="101"/>
+      <c r="H6" t="str">
+        <f t="shared" ref="H6:H15" si="0">$H$4</f>
+        <v>These test cases should come from the module test cases</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>These test cases should come from the module test cases</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>These test cases should come from the module test cases</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>These test cases should come from the module test cases</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="82" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>These test cases should come from the module test cases</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>These test cases should come from the module test cases</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>These test cases should come from the module test cases</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F13" s="84" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>These test cases should come from the module test cases</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>These test cases should come from the module test cases</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>These test cases should come from the module test cases</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" s="8" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="102" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="106" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="105" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="105" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="F16" s="107" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="105" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="103"/>
+      <c r="B17" s="106"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="F17" s="107"/>
+      <c r="G17" s="105"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="103"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="F18" s="107"/>
+      <c r="G18" s="105"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="103"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="F19" s="107"/>
+      <c r="G19" s="105"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="104"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="F20" s="107"/>
+      <c r="G20" s="105"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="69" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21" s="69">
+        <v>123</v>
+      </c>
+      <c r="D21" s="69">
+        <v>123</v>
+      </c>
+      <c r="E21" s="69"/>
+      <c r="F21" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="69"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="69" t="s">
+        <v>170</v>
+      </c>
+      <c r="C22" s="69">
+        <v>-456</v>
+      </c>
+      <c r="D22" s="69">
+        <v>-456</v>
+      </c>
+      <c r="E22" s="69"/>
+      <c r="F22" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="69"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="69" t="s">
+        <v>170</v>
+      </c>
+      <c r="C23" s="69">
+        <v>0</v>
+      </c>
+      <c r="D23" s="69">
+        <v>0</v>
+      </c>
+      <c r="E23" s="69"/>
+      <c r="F23" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="69"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="69" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="D24" s="69">
+        <v>0</v>
+      </c>
+      <c r="E24" s="69"/>
+      <c r="F24" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="69"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="69" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" s="69">
+        <v>1.5</v>
+      </c>
+      <c r="D25" s="69">
         <v>1</v>
       </c>
-      <c r="B1" s="16" t="str" cm="1">
-        <f t="array" aca="1" ref="B1" ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
-        <v>main</v>
-      </c>
-      <c r="C1" s="95" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-    </row>
-    <row r="2" spans="1:9" s="8" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="79" t="s">
+      <c r="E25" s="69"/>
+      <c r="F25" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="69"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" ht="93" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="69" t="s">
+        <v>165</v>
+      </c>
+      <c r="C26" s="69">
+        <v>2147483648</v>
+      </c>
+      <c r="D26" s="69">
+        <v>2147483648</v>
+      </c>
+      <c r="E26" s="69">
+        <v>-214748364</v>
+      </c>
+      <c r="F26" s="84" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="69" t="s">
+        <v>164</v>
+      </c>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="90"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="74" t="s">
+        <v>313</v>
+      </c>
+      <c r="G27" s="76" t="s">
+        <v>315</v>
+      </c>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="92" t="s">
+        <v>312</v>
+      </c>
+      <c r="B28" s="93"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="75" t="s">
+        <v>314</v>
+      </c>
+      <c r="G28" s="77" t="s">
+        <v>316</v>
+      </c>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="95" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="97" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="78" t="s">
+        <v>317</v>
+      </c>
+      <c r="F29" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" s="8" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="96"/>
+      <c r="B30" s="98"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="79" t="s">
+        <v>318</v>
+      </c>
+      <c r="F30" s="108"/>
+      <c r="G30" s="101"/>
+    </row>
+    <row r="31" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="21" t="s">
+      <c r="C31" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F36" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F37" s="84" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="F41" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A42" s="102" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="106" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="105" t="s">
+        <v>248</v>
+      </c>
+      <c r="D42" s="105" t="s">
+        <v>249</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="F42" s="107" t="s">
+        <v>30</v>
+      </c>
+      <c r="G42" s="105" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A43" s="103"/>
+      <c r="B43" s="106"/>
+      <c r="C43" s="105"/>
+      <c r="D43" s="105"/>
+      <c r="E43" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="F43" s="107"/>
+      <c r="G43" s="105"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="103"/>
+      <c r="B44" s="106"/>
+      <c r="C44" s="105"/>
+      <c r="D44" s="105"/>
+      <c r="E44" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="F44" s="107"/>
+      <c r="G44" s="105"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="103"/>
+      <c r="B45" s="106"/>
+      <c r="C45" s="105"/>
+      <c r="D45" s="105"/>
+      <c r="E45" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="F45" s="107"/>
+      <c r="G45" s="105"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="103"/>
+      <c r="B46" s="106"/>
+      <c r="C46" s="105"/>
+      <c r="D46" s="105"/>
+      <c r="E46" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="F46" s="107"/>
+      <c r="G46" s="105"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="104"/>
+      <c r="B47" s="106"/>
+      <c r="C47" s="105"/>
+      <c r="D47" s="105"/>
+      <c r="E47" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="F47" s="107"/>
+      <c r="G47" s="105"/>
+    </row>
+    <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="109" t="s">
+        <v>170</v>
+      </c>
+      <c r="C48" s="69">
+        <v>12.34</v>
+      </c>
+      <c r="D48" s="69">
+        <v>12.34</v>
+      </c>
+      <c r="E48" s="69"/>
+      <c r="F48" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A49" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="C49" s="69" t="s">
+        <v>179</v>
+      </c>
+      <c r="D49" s="69" t="s">
+        <v>180</v>
+      </c>
+      <c r="E49" s="69">
+        <v>12.3</v>
+      </c>
+      <c r="F49" s="84" t="s">
+        <v>30</v>
+      </c>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="B50" s="68" t="s">
+        <v>170</v>
+      </c>
+      <c r="C50" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="69" t="s">
+        <v>182</v>
+      </c>
+      <c r="E50" s="69"/>
+      <c r="F50" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="1:7" ht="237.6" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="68" t="s">
+        <v>170</v>
+      </c>
+      <c r="C51" s="71" t="s">
+        <v>184</v>
+      </c>
+      <c r="D51" s="71" t="s">
+        <v>185</v>
+      </c>
+      <c r="E51" s="69" t="s">
+        <v>186</v>
+      </c>
+      <c r="F51" s="84" t="s">
+        <v>30</v>
+      </c>
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="68" t="s">
+        <v>170</v>
+      </c>
+      <c r="C52" s="71">
+        <v>2.2300000000000001E-308</v>
+      </c>
+      <c r="D52" s="71">
+        <v>2.2300000000000001E-308</v>
+      </c>
+      <c r="E52" s="69">
+        <v>0</v>
+      </c>
+      <c r="F52" s="84" t="s">
+        <v>30</v>
+      </c>
+      <c r="G52" s="3"/>
+    </row>
+    <row r="53" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="68" t="s">
+        <v>170</v>
+      </c>
+      <c r="C53" s="71">
+        <v>3.1399999999999998E-5</v>
+      </c>
+      <c r="D53" s="69">
+        <v>3.1000000000000001E-5</v>
+      </c>
+      <c r="E53" s="69"/>
+      <c r="F53" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="G53" s="3"/>
+    </row>
+    <row r="54" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="89" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" s="90"/>
+      <c r="C54" s="90"/>
+      <c r="D54" s="90"/>
+      <c r="E54" s="91"/>
+      <c r="F54" s="74" t="s">
+        <v>313</v>
+      </c>
+      <c r="G54" s="76" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="92" t="s">
+        <v>312</v>
+      </c>
+      <c r="B55" s="93"/>
+      <c r="C55" s="93"/>
+      <c r="D55" s="93"/>
+      <c r="E55" s="94"/>
+      <c r="F55" s="75" t="s">
+        <v>314</v>
+      </c>
+      <c r="G55" s="77" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="95" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="97" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="78" t="s">
+        <v>317</v>
+      </c>
+      <c r="F56" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="100" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="96"/>
+      <c r="B57" s="98"/>
+      <c r="C57" s="98"/>
+      <c r="D57" s="98"/>
+      <c r="E57" s="79" t="s">
+        <v>318</v>
+      </c>
+      <c r="F57" s="108"/>
+      <c r="G57" s="101"/>
+    </row>
+    <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="E58" s="3"/>
+      <c r="F58" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="G58" s="3"/>
+    </row>
+    <row r="59" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A59" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="F59" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="G59" s="3"/>
+    </row>
+    <row r="60" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="E60" s="3"/>
+      <c r="F60" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="G60" s="3"/>
+    </row>
+    <row r="61" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D61" s="110">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3"/>
+      <c r="F61" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="G61" s="3"/>
+    </row>
+    <row r="62" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A62" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E62" s="3"/>
+      <c r="F62" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="G62" s="3"/>
+    </row>
+    <row r="63" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A63" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63" s="110">
+        <v>1</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="F63" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A64" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F64" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A65" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F65" s="84" t="s">
+        <v>30</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A66" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F66" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A67" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F67" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A68" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="17"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="D68" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="F68" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A69" s="102" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="106" t="s">
+        <v>34</v>
+      </c>
+      <c r="C69" s="105" t="s">
         <v>256</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="F10" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="86" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="89" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="84" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="84" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="D69" s="105" t="s">
         <v>257</v>
       </c>
-      <c r="F13" s="90" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="84" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="87"/>
-      <c r="B14" s="89"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="F14" s="90"/>
-      <c r="G14" s="84"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="87"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="F15" s="90"/>
-      <c r="G15" s="84"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="87"/>
-      <c r="B16" s="89"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F16" s="90"/>
-      <c r="G16" s="84"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="88"/>
-      <c r="B17" s="89"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="F17" s="90"/>
-      <c r="G17" s="84"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="E69" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="F69" s="107" t="s">
+        <v>30</v>
+      </c>
+      <c r="G69" s="105" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A70" s="103"/>
+      <c r="B70" s="106"/>
+      <c r="C70" s="105"/>
+      <c r="D70" s="105"/>
+      <c r="E70" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="F70" s="107"/>
+      <c r="G70" s="105"/>
+    </row>
+    <row r="71" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A71" s="103"/>
+      <c r="B71" s="106"/>
+      <c r="C71" s="105"/>
+      <c r="D71" s="105"/>
+      <c r="E71" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="F71" s="107"/>
+      <c r="G71" s="105"/>
+    </row>
+    <row r="72" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A72" s="104"/>
+      <c r="B72" s="106"/>
+      <c r="C72" s="105"/>
+      <c r="D72" s="105"/>
+      <c r="E72" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="F72" s="107"/>
+      <c r="G72" s="111"/>
+    </row>
+    <row r="73" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A73" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="67" t="s">
-        <v>173</v>
-      </c>
-      <c r="C18" s="67">
-        <v>123</v>
-      </c>
-      <c r="D18" s="67">
-        <v>123</v>
-      </c>
-      <c r="E18" s="67"/>
-      <c r="F18" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="67"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="B73" s="68" t="s">
+        <v>170</v>
+      </c>
+      <c r="C73" s="69">
+        <v>1234567</v>
+      </c>
+      <c r="D73" s="69">
+        <v>1234567</v>
+      </c>
+      <c r="E73" s="69"/>
+      <c r="F73" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="G73" s="3"/>
+    </row>
+    <row r="74" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A74" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="67" t="s">
-        <v>173</v>
-      </c>
-      <c r="C19" s="67">
-        <v>-456</v>
-      </c>
-      <c r="D19" s="67">
-        <v>-456</v>
-      </c>
-      <c r="E19" s="67"/>
-      <c r="F19" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="67"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="B74" s="68" t="s">
+        <v>170</v>
+      </c>
+      <c r="C74" s="71">
+        <v>-9.22E+18</v>
+      </c>
+      <c r="D74" s="71">
+        <v>-9.22E+18</v>
+      </c>
+      <c r="E74" s="69"/>
+      <c r="F74" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="G74" s="3"/>
+    </row>
+    <row r="75" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A75" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="67" t="s">
-        <v>173</v>
-      </c>
-      <c r="C20" s="67">
-        <v>0</v>
-      </c>
-      <c r="D20" s="67">
-        <v>0</v>
-      </c>
-      <c r="E20" s="67"/>
-      <c r="F20" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="67"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="B75" s="68" t="s">
+        <v>170</v>
+      </c>
+      <c r="C75" s="71">
+        <v>9.22E+18</v>
+      </c>
+      <c r="D75" s="71">
+        <v>9.22E+18</v>
+      </c>
+      <c r="E75" s="69"/>
+      <c r="F75" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="G75" s="3"/>
+    </row>
+    <row r="76" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A76" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="67" t="s">
-        <v>168</v>
-      </c>
-      <c r="C21" s="67" t="s">
-        <v>171</v>
-      </c>
-      <c r="D21" s="67">
-        <v>0</v>
-      </c>
-      <c r="E21" s="67"/>
-      <c r="F21" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" s="67"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="B76" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="C76" s="71">
+        <v>1.2299999999999999E+209</v>
+      </c>
+      <c r="D76" s="69" t="s">
+        <v>307</v>
+      </c>
+      <c r="E76" s="69"/>
+      <c r="F76" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="G76" s="3"/>
+    </row>
+    <row r="77" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A77" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="67" t="s">
-        <v>168</v>
-      </c>
-      <c r="C22" s="67">
-        <v>1.5</v>
-      </c>
-      <c r="D22" s="67">
-        <v>1</v>
-      </c>
-      <c r="E22" s="67"/>
-      <c r="F22" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="67"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" ht="93" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
+      <c r="B77" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="C77" s="69" t="s">
+        <v>308</v>
+      </c>
+      <c r="D77" s="69" t="s">
+        <v>309</v>
+      </c>
+      <c r="E77" s="69"/>
+      <c r="F77" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="G77" s="3"/>
+    </row>
+    <row r="78" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="67" t="s">
-        <v>168</v>
-      </c>
-      <c r="C23" s="67">
-        <v>2147483648</v>
-      </c>
-      <c r="D23" s="67">
-        <v>2147483648</v>
-      </c>
-      <c r="E23" s="67">
-        <v>-214748364</v>
-      </c>
-      <c r="F23" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="67" t="s">
-        <v>167</v>
-      </c>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" s="8" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" s="3"/>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" s="3"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="G29" s="3"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="G30" s="3"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="F31" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="F32" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F33" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F34" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F35" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="F36" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A37" s="86" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="89" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="84" t="s">
-        <v>251</v>
-      </c>
-      <c r="D37" s="84" t="s">
-        <v>252</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="F37" s="90" t="s">
-        <v>33</v>
-      </c>
-      <c r="G37" s="84" t="s">
-        <v>32</v>
-      </c>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A38" s="87"/>
-      <c r="B38" s="89"/>
-      <c r="C38" s="84"/>
-      <c r="D38" s="84"/>
-      <c r="E38" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="F38" s="90"/>
-      <c r="G38" s="84"/>
-      <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="87"/>
-      <c r="B39" s="89"/>
-      <c r="C39" s="84"/>
-      <c r="D39" s="84"/>
-      <c r="E39" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="F39" s="90"/>
-      <c r="G39" s="84"/>
-      <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="87"/>
-      <c r="B40" s="89"/>
-      <c r="C40" s="84"/>
-      <c r="D40" s="84"/>
-      <c r="E40" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="F40" s="90"/>
-      <c r="G40" s="84"/>
-      <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="87"/>
-      <c r="B41" s="89"/>
-      <c r="C41" s="84"/>
-      <c r="D41" s="84"/>
-      <c r="E41" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F41" s="90"/>
-      <c r="G41" s="84"/>
-      <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="88"/>
-      <c r="B42" s="89"/>
-      <c r="C42" s="84"/>
-      <c r="D42" s="84"/>
-      <c r="E42" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="F42" s="90"/>
-      <c r="G42" s="84"/>
-      <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43" s="68" t="s">
-        <v>173</v>
-      </c>
-      <c r="C43" s="67">
-        <v>12.34</v>
-      </c>
-      <c r="D43" s="67">
-        <v>12.34</v>
-      </c>
-      <c r="E43" s="67"/>
-      <c r="F43" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="G43" s="5"/>
-      <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B44" s="69" t="s">
-        <v>168</v>
-      </c>
-      <c r="C44" s="67" t="s">
-        <v>182</v>
-      </c>
-      <c r="D44" s="67" t="s">
-        <v>183</v>
-      </c>
-      <c r="E44" s="67">
-        <v>12.3</v>
-      </c>
-      <c r="F44" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="G44" s="5"/>
-      <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="B45" s="69" t="s">
-        <v>173</v>
-      </c>
-      <c r="C45" s="67" t="s">
-        <v>52</v>
-      </c>
-      <c r="D45" s="67" t="s">
-        <v>185</v>
-      </c>
-      <c r="E45" s="67"/>
-      <c r="F45" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="G45" s="5"/>
-      <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="1:9" ht="237.6" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B46" s="69" t="s">
-        <v>173</v>
-      </c>
-      <c r="C46" s="70" t="s">
-        <v>187</v>
-      </c>
-      <c r="D46" s="70" t="s">
-        <v>188</v>
-      </c>
-      <c r="E46" s="67" t="s">
-        <v>189</v>
-      </c>
-      <c r="F46" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="G46" s="3"/>
-      <c r="I46" s="2"/>
-    </row>
-    <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B47" s="69" t="s">
-        <v>173</v>
-      </c>
-      <c r="C47" s="70">
-        <v>2.2300000000000001E-308</v>
-      </c>
-      <c r="D47" s="70">
-        <v>2.2300000000000001E-308</v>
-      </c>
-      <c r="E47" s="67">
-        <v>0</v>
-      </c>
-      <c r="F47" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="G47" s="3"/>
-      <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B48" s="69" t="s">
-        <v>173</v>
-      </c>
-      <c r="C48" s="70">
-        <v>3.1399999999999998E-5</v>
-      </c>
-      <c r="D48" s="67">
-        <v>3.1000000000000001E-5</v>
-      </c>
-      <c r="E48" s="67"/>
-      <c r="F48" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="G48" s="3"/>
-      <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="1:9" s="8" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="92" t="s">
-        <v>17</v>
-      </c>
-      <c r="B49" s="93"/>
-      <c r="C49" s="93"/>
-      <c r="D49" s="93"/>
-      <c r="E49" s="94"/>
-      <c r="F49" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="G49" s="21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="G51" s="3"/>
-      <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="E52" s="3"/>
-      <c r="F52" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="G52" s="3"/>
-      <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="G53" s="3"/>
-      <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D54" s="74">
-        <v>0</v>
-      </c>
-      <c r="E54" s="3"/>
-      <c r="F54" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="G54" s="3"/>
-      <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A55" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="G55" s="3"/>
-      <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A56" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D56" s="74">
-        <v>1</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="F56" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F57" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A58" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="F58" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A59" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F59" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A60" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F60" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A61" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="F61" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A62" s="86" t="s">
-        <v>4</v>
-      </c>
-      <c r="B62" s="89" t="s">
-        <v>37</v>
-      </c>
-      <c r="C62" s="84" t="s">
-        <v>288</v>
-      </c>
-      <c r="D62" s="84" t="s">
-        <v>289</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="F62" s="90" t="s">
-        <v>33</v>
-      </c>
-      <c r="G62" s="84" t="s">
-        <v>32</v>
-      </c>
-      <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A63" s="87"/>
-      <c r="B63" s="89"/>
-      <c r="C63" s="84"/>
-      <c r="D63" s="84"/>
-      <c r="E63" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="F63" s="90"/>
-      <c r="G63" s="84"/>
-      <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A64" s="87"/>
-      <c r="B64" s="89"/>
-      <c r="C64" s="84"/>
-      <c r="D64" s="84"/>
-      <c r="E64" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="F64" s="90"/>
-      <c r="G64" s="84"/>
-      <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="88"/>
-      <c r="B65" s="89"/>
-      <c r="C65" s="85"/>
-      <c r="D65" s="85"/>
-      <c r="E65" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="F65" s="91"/>
-      <c r="G65" s="85"/>
-      <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A66" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="C66" s="7">
-        <v>1234567</v>
-      </c>
-      <c r="D66" s="7">
-        <v>1234567</v>
-      </c>
-      <c r="E66" s="3"/>
-      <c r="F66" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="G66" s="3"/>
-      <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A67" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="C67" s="71">
-        <v>-9.22337E+18</v>
-      </c>
-      <c r="D67" s="71">
-        <v>-9.22337E+18</v>
-      </c>
-      <c r="E67" s="3"/>
-      <c r="F67" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="G67" s="3"/>
-      <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="C68" s="72">
-        <v>9.22337E+18</v>
-      </c>
-      <c r="D68" s="72">
-        <v>9.22337E+18</v>
-      </c>
-      <c r="E68" s="4"/>
-      <c r="F68" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="G68" s="4"/>
-    </row>
-    <row r="69" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A69" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C69" s="73">
-        <v>1.2346E+209</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="F69" s="66" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A70" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="F70" s="66" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A71" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C71" s="6">
+      <c r="B78" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="C78" s="69">
         <v>-987654321</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D78" s="69">
         <v>-987654321</v>
       </c>
-      <c r="F71" s="66" t="s">
-        <v>27</v>
-      </c>
+      <c r="E78" s="69"/>
+      <c r="F78" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="G78" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="F13:F17"/>
-    <mergeCell ref="G13:G17"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="C37:C42"/>
-    <mergeCell ref="D37:D42"/>
-    <mergeCell ref="F37:F42"/>
-    <mergeCell ref="G37:G42"/>
-    <mergeCell ref="G62:G65"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="D62:D65"/>
-    <mergeCell ref="F62:F65"/>
+  <mergeCells count="44">
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="C69:C72"/>
+    <mergeCell ref="D69:D72"/>
+    <mergeCell ref="F69:F72"/>
+    <mergeCell ref="G69:G72"/>
+    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="A42:A47"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="C42:C47"/>
+    <mergeCell ref="D42:D47"/>
+    <mergeCell ref="F42:F47"/>
+    <mergeCell ref="G42:G47"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="D16:D20"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="G16:G20"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:G2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="B16:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
